--- a/data-raw/StatesBEAFRB/PensionEstimatesByState.xlsx
+++ b/data-raw/StatesBEAFRB/PensionEstimatesByState.xlsx
@@ -11,8 +11,8 @@
     <sheet name="EmployerNormalCost" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BenefitEntitlements!$A$1:$P$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">EmployerNormalCost!$A$1:$P$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BenefitEntitlements!$A$1:$R$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">EmployerNormalCost!$A$1:$R$59</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BenefitEntitlements!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EmployerNormalCost!$1:$4</definedName>
     <definedName name="table1">#REF!</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="114">
   <si>
     <t>Source:  U.S. Bureau of Economic Analysis</t>
   </si>
@@ -239,14 +239,176 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, by State, 2000-2014</t>
+      <t>, by State, 2000-2015</t>
     </r>
   </si>
   <si>
-    <t>Table 1. Benefit Entitlements, End of Year, by State, 2000-2014</t>
-  </si>
-  <si>
-    <t>Last updated: September 28, 2016--new estimates for 2014; revised estimates for 2000-2013.</t>
+    <t>Table 1. Benefit Entitlements, End of Year, by State, 2000-2015</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>01000</t>
+  </si>
+  <si>
+    <t>02000</t>
+  </si>
+  <si>
+    <t>04000</t>
+  </si>
+  <si>
+    <t>05000</t>
+  </si>
+  <si>
+    <t>06000</t>
+  </si>
+  <si>
+    <t>08000</t>
+  </si>
+  <si>
+    <t>09000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>23000</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>26000</t>
+  </si>
+  <si>
+    <t>27000</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>29000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>33000</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>37000</t>
+  </si>
+  <si>
+    <t>38000</t>
+  </si>
+  <si>
+    <t>39000</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>41000</t>
+  </si>
+  <si>
+    <t>42000</t>
+  </si>
+  <si>
+    <t>44000</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>46000</t>
+  </si>
+  <si>
+    <t>47000</t>
+  </si>
+  <si>
+    <t>48000</t>
+  </si>
+  <si>
+    <t>49000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>51000</t>
+  </si>
+  <si>
+    <t>53000</t>
+  </si>
+  <si>
+    <t>54000</t>
+  </si>
+  <si>
+    <t>55000</t>
+  </si>
+  <si>
+    <t>56000</t>
+  </si>
+  <si>
+    <t>GeoFips</t>
+  </si>
+  <si>
+    <t>Geoname</t>
+  </si>
+  <si>
+    <t>Last updated: September 26, 2017--new estimates for 2015; revised estimates for 2014.</t>
   </si>
 </sst>
 </file>
@@ -257,7 +419,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -306,16 +468,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -336,15 +510,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -442,6 +607,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -450,7 +637,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -459,56 +646,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -518,21 +719,7 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal_spi1204" xfId="4"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="69">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -564,20 +751,6 @@
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -587,34 +760,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1166,6 +1311,90 @@
           <color indexed="64"/>
         </right>
         <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
@@ -1711,48 +1940,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table6" displayName="Table6" ref="A6:P56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="66">
-  <tableColumns count="16">
-    <tableColumn id="1" name="Column1" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="Normal_spi1204" dataCellStyle="Normal_spi1204"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="63" dataDxfId="62"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="61" dataDxfId="60"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="59" dataDxfId="58"/>
-    <tableColumn id="5" name="Column5" headerRowDxfId="57" dataDxfId="56"/>
-    <tableColumn id="6" name="Column6" headerRowDxfId="55" dataDxfId="54"/>
-    <tableColumn id="7" name="Column7" headerRowDxfId="53" dataDxfId="52"/>
-    <tableColumn id="8" name="Column8" headerRowDxfId="51" dataDxfId="50"/>
-    <tableColumn id="9" name="Column9" headerRowDxfId="49" dataDxfId="48"/>
-    <tableColumn id="10" name="Column10" headerRowDxfId="47" dataDxfId="46"/>
-    <tableColumn id="11" name="Column11" headerRowDxfId="45" dataDxfId="44"/>
-    <tableColumn id="12" name="Column12" headerRowDxfId="43" dataDxfId="42"/>
-    <tableColumn id="13" name="Column13" headerRowDxfId="41" dataDxfId="40"/>
-    <tableColumn id="14" name="Column14" headerRowDxfId="39" dataDxfId="38"/>
-    <tableColumn id="16" name="Column16" headerRowDxfId="7" dataDxfId="5"/>
-    <tableColumn id="17" name="Column17" headerRowDxfId="6" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table6" displayName="Table6" ref="B6:R56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="68">
+  <tableColumns count="17">
+    <tableColumn id="1" name="Column1" headerRowDxfId="67" dataDxfId="66" headerRowCellStyle="Normal_spi1204" dataCellStyle="Normal_spi1204"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="65" dataDxfId="64"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="63" dataDxfId="62"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="61" dataDxfId="60"/>
+    <tableColumn id="5" name="Column5" headerRowDxfId="59" dataDxfId="58"/>
+    <tableColumn id="6" name="Column6" headerRowDxfId="57" dataDxfId="56"/>
+    <tableColumn id="7" name="Column7" headerRowDxfId="55" dataDxfId="54"/>
+    <tableColumn id="8" name="Column8" headerRowDxfId="53" dataDxfId="52"/>
+    <tableColumn id="9" name="Column9" headerRowDxfId="51" dataDxfId="50"/>
+    <tableColumn id="10" name="Column10" headerRowDxfId="49" dataDxfId="48"/>
+    <tableColumn id="11" name="Column11" headerRowDxfId="47" dataDxfId="46"/>
+    <tableColumn id="12" name="Column12" headerRowDxfId="45" dataDxfId="44"/>
+    <tableColumn id="13" name="Column13" headerRowDxfId="43" dataDxfId="42"/>
+    <tableColumn id="14" name="Column14" headerRowDxfId="41" dataDxfId="40"/>
+    <tableColumn id="16" name="Column16" headerRowDxfId="39" dataDxfId="38"/>
+    <tableColumn id="15" name="Column15" headerRowDxfId="37" dataDxfId="36"/>
+    <tableColumn id="17" name="Column17" headerRowDxfId="35" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table7" displayName="Table7" ref="A6:P56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table7" displayName="Table7" ref="B6:Q56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32">
   <tableColumns count="16">
-    <tableColumn id="1" name="Column1" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="Normal_spi1204" dataCellStyle="Normal_spi1204"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="33" dataDxfId="32"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="31" dataDxfId="30"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="29" dataDxfId="28"/>
-    <tableColumn id="5" name="Column5" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="6" name="Column6" headerRowDxfId="25" dataDxfId="24"/>
-    <tableColumn id="7" name="Column7" headerRowDxfId="23" dataDxfId="22"/>
-    <tableColumn id="8" name="Column8" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="9" name="Column9" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="10" name="Column10" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="11" name="Column11" headerRowDxfId="15" dataDxfId="14"/>
-    <tableColumn id="12" name="Column12" headerRowDxfId="13" dataDxfId="12"/>
-    <tableColumn id="13" name="Column13" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="14" name="Column14" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="16" name="Column16" headerRowDxfId="3" dataDxfId="1"/>
-    <tableColumn id="17" name="Column17" headerRowDxfId="2" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="Normal_spi1204" dataCellStyle="Normal_spi1204"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="29" dataDxfId="28"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="25" dataDxfId="24"/>
+    <tableColumn id="5" name="Column5" headerRowDxfId="23" dataDxfId="22"/>
+    <tableColumn id="6" name="Column6" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="7" name="Column7" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="8" name="Column8" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="9" name="Column9" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="10" name="Column10" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="11" name="Column11" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="12" name="Column12" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="13" name="Column13" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="14" name="Column14" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="16" name="Column16" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="17" name="Column17" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2048,2784 +2278,3110 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16" width="14.6640625" style="4" customWidth="1"/>
-    <col min="17" max="21" width="15.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="18" width="14.6640625" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="23" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="5">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="5">
         <v>2000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>2001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>2002</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>2003</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>2004</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>2005</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>2006</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>2007</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>2008</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>2009</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>2010</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>2011</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>2012</v>
       </c>
-      <c r="O4" s="11">
+      <c r="P4" s="11">
         <v>2013</v>
       </c>
-      <c r="P4" s="11">
+      <c r="Q4" s="11">
         <v>2014</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="R4" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C5" s="6">
         <v>2006392000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <v>2188961000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>2367850000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>2551643000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>2940110000</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>3140934000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>3406455000</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>3588471000</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>3798991000</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>3959833000</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>4408676000</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>4604076000</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>4789632000</v>
       </c>
-      <c r="O5" s="9">
+      <c r="P5" s="9">
         <v>4986903000</v>
       </c>
-      <c r="P5" s="9">
-        <v>5233938000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="Q5" s="9">
+        <v>5267288000</v>
+      </c>
+      <c r="R5" s="9">
+        <v>5520855000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="C6" s="6">
         <v>22153296</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <v>23779523</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>25664571</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>27791966</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>32175468</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>35532402</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>38909575</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>40497302</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>42785251</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>44321073</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>49058336</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>50593210</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>50718227</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>51366180</v>
       </c>
-      <c r="P6" s="7">
-        <v>53607131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="Q6" s="7">
+        <v>53920841</v>
+      </c>
+      <c r="R6" s="7">
+        <v>56071216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="C7" s="6">
         <v>10121382</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="6">
         <v>11130121</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>11963473</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>12582264</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>14010204</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>14682093</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>15655668</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>16189635</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>17019039</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>17931673</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>20092773</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>21042325</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>21992726</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="9">
         <v>23279256</v>
       </c>
-      <c r="P7" s="9">
-        <v>25179503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="Q7" s="9">
+        <v>25325346</v>
+      </c>
+      <c r="R7" s="9">
+        <v>26742559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="C8" s="6">
         <v>24593735</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>27745595</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>30706685</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>33380658</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>39117456</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>42274893</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>46439689</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>49142392</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>52182629</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>54740902</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>61256305</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>63836332</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>66625700</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>70125296</v>
       </c>
-      <c r="P8" s="9">
-        <v>74642127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="Q8" s="9">
+        <v>74856732</v>
+      </c>
+      <c r="R8" s="9">
+        <v>78267670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="C9" s="6">
         <v>11379026</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6">
         <v>12389326</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>13250781</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>14208048</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>16595408</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>17860605</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>19289994</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>20481603</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>21857054</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <v>23020001</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>26324822</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <v>27800486</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>29031533</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>30273348</v>
       </c>
-      <c r="P9" s="9">
-        <v>31793642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="Q9" s="9">
+        <v>31981984</v>
+      </c>
+      <c r="R9" s="9">
+        <v>33573961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6">
+      <c r="C10" s="6">
         <v>328304716</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <v>364542856</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>397885151</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>432723767</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <v>503640044</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>542139083</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>595417064</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>634357824</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>681611397</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>723277830</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>817252209</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>857303634</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>903833152</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>955896156</v>
       </c>
-      <c r="P10" s="9">
-        <v>1008600101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="Q10" s="9">
+        <v>1014809436</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1062481735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="C11" s="6">
         <v>32317872</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>36200526</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>40518239</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>45570588</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <v>54025306</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>58719769</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>64287604</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>68096144</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>72088234</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <v>72006295</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>75482744</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <v>77940431</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <v>79244145</v>
       </c>
-      <c r="O11" s="9">
+      <c r="P11" s="9">
         <v>81786618</v>
       </c>
-      <c r="P11" s="9">
-        <v>84961870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="Q11" s="9">
+        <v>85488334</v>
+      </c>
+      <c r="R11" s="9">
+        <v>88748268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="C12" s="6">
         <v>31629839</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="6">
         <v>34074307</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <v>37113186</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>40289940</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <v>45796298</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>48456831</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>53052820</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>56836270</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>60305516</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>63007398</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>69407436</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>72032822</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>75459439</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>78657827</v>
       </c>
-      <c r="P12" s="9">
-        <v>81880316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="Q12" s="9">
+        <v>82319326</v>
+      </c>
+      <c r="R12" s="9">
+        <v>87239785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6">
+      <c r="C13" s="6">
         <v>4325370</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="6">
         <v>4751576</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <v>5134918</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>5501280</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="8">
         <v>6333503</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>6820652</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>7378201</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>7690140</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>8102103</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>8446221</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>9304203</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>9663433</v>
       </c>
-      <c r="N13" s="9">
+      <c r="O13" s="9">
         <v>10158027</v>
       </c>
-      <c r="O13" s="9">
+      <c r="P13" s="9">
         <v>10554688</v>
       </c>
-      <c r="P13" s="9">
-        <v>10766140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="Q13" s="9">
+        <v>11062499</v>
+      </c>
+      <c r="R13" s="9">
+        <v>11976867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
+      <c r="C14" s="6">
         <v>1917982</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="6">
         <v>2132213</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <v>2407033</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="8">
         <v>2640506</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <v>3313946</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>3589030</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>4021168</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>4387518</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>4765549</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <v>4927982</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>5560033</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>6009572</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>6274046</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>6597315</v>
       </c>
-      <c r="P14" s="9">
-        <v>7127958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="Q14" s="9">
+        <v>7146953</v>
+      </c>
+      <c r="R14" s="9">
+        <v>7784270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="C15" s="6">
         <v>80415195</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="6">
         <v>87025097</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>91492912</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>96385913</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>112399675</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="8">
         <v>122812636</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>133864682</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>140599165</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>151375488</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <v>161916061</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>182636569</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>191750113</v>
       </c>
-      <c r="N15" s="9">
+      <c r="O15" s="9">
         <v>200209811</v>
       </c>
-      <c r="O15" s="9">
+      <c r="P15" s="9">
         <v>208313114</v>
       </c>
-      <c r="P15" s="9">
-        <v>216479525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="Q15" s="9">
+        <v>217859870</v>
+      </c>
+      <c r="R15" s="9">
+        <v>226735135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6">
+      <c r="C16" s="6">
         <v>53109706</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <v>56666639</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>61436324</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>67197959</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>78233269</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <v>83776704</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>90240555</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>94368597</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>98148407</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>101374387</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>116076844</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>120652737</v>
       </c>
-      <c r="N16" s="9">
+      <c r="O16" s="9">
         <v>125983161</v>
       </c>
-      <c r="O16" s="9">
+      <c r="P16" s="9">
         <v>132036755</v>
       </c>
-      <c r="P16" s="9">
-        <v>137456343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="Q16" s="9">
+        <v>138337590</v>
+      </c>
+      <c r="R16" s="9">
+        <v>144653520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="C17" s="6">
         <v>9206665</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="6">
         <v>9917697</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="6">
         <v>10629956</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="8">
         <v>11313764</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
         <v>12747199</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="8">
         <v>13956982</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>15562041</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>16233260</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>17139014</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <v>18023962</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>20496233</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="6">
         <v>21511063</v>
       </c>
-      <c r="N17" s="9">
+      <c r="O17" s="9">
         <v>22206149</v>
       </c>
-      <c r="O17" s="9">
+      <c r="P17" s="9">
         <v>23053314</v>
       </c>
-      <c r="P17" s="9">
-        <v>24148547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="Q17" s="9">
+        <v>24262225</v>
+      </c>
+      <c r="R17" s="9">
+        <v>25507596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="6">
         <v>5400568</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="6">
         <v>5939314</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <v>6358553</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="8">
         <v>6807469</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <v>7924362</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <v>8727692</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>9759596</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>10407934</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>11083559</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <v>11573747</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>13000500</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <v>13591742</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="9">
         <v>14319288</v>
       </c>
-      <c r="O18" s="9">
+      <c r="P18" s="9">
         <v>15201405</v>
       </c>
-      <c r="P18" s="9">
-        <v>16115923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="Q18" s="9">
+        <v>16212918</v>
+      </c>
+      <c r="R18" s="9">
+        <v>17084788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6">
+      <c r="C19" s="6">
         <v>112087603</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <v>123471738</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <v>138261481</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>150512349</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
         <v>174406716</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <v>186931745</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>203686268</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>218194556</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>229726560</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>245018913</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="6">
         <v>277135653</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <v>293677366</v>
       </c>
-      <c r="N19" s="9">
+      <c r="O19" s="9">
         <v>310264057</v>
       </c>
-      <c r="O19" s="9">
+      <c r="P19" s="9">
         <v>325768123</v>
       </c>
-      <c r="P19" s="9">
-        <v>342194123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="Q19" s="9">
+        <v>345608813</v>
+      </c>
+      <c r="R19" s="9">
+        <v>364827932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6">
+      <c r="C20" s="6">
         <v>17904439</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="6">
         <v>19291891</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <v>20211294</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>20960715</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <v>24431851</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="8">
         <v>26467401</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>29198115</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>30648718</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <v>31515930</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>32233723</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>35308953</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>36347997</v>
       </c>
-      <c r="N20" s="9">
+      <c r="O20" s="9">
         <v>37401623</v>
       </c>
-      <c r="O20" s="9">
+      <c r="P20" s="9">
         <v>38375603</v>
       </c>
-      <c r="P20" s="9">
-        <v>40660232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="Q20" s="9">
+        <v>40748570</v>
+      </c>
+      <c r="R20" s="9">
+        <v>43867619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6">
+      <c r="C21" s="6">
         <v>12658724</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <v>13826614</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <v>14996458</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="8">
         <v>16200985</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="8">
         <v>18657369</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <v>19809917</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>21607695</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>22749529</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>24211613</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <v>25399011</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <v>28852318</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <v>30498366</v>
       </c>
-      <c r="N21" s="9">
+      <c r="O21" s="9">
         <v>31825178</v>
       </c>
-      <c r="O21" s="9">
+      <c r="P21" s="9">
         <v>33320291</v>
       </c>
-      <c r="P21" s="9">
-        <v>35101776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="Q21" s="9">
+        <v>35297363</v>
+      </c>
+      <c r="R21" s="9">
+        <v>37078008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6">
+      <c r="C22" s="6">
         <v>11039294</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="6">
         <v>11659391</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <v>12452415</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="8">
         <v>12994340</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>14636185</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="8">
         <v>15604102</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>16882521</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <v>17862455</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <v>19111719</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <v>20286089</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="6">
         <v>22922067</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <v>23895927</v>
       </c>
-      <c r="N22" s="9">
+      <c r="O22" s="9">
         <v>24974004</v>
       </c>
-      <c r="O22" s="9">
+      <c r="P22" s="9">
         <v>26052463</v>
       </c>
-      <c r="P22" s="9">
-        <v>27113100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="Q22" s="9">
+        <v>27261333</v>
+      </c>
+      <c r="R22" s="9">
+        <v>28341680</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6">
+      <c r="C23" s="6">
         <v>23370269</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="6">
         <v>25941964</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="6">
         <v>28336076</v>
       </c>
-      <c r="E23" s="8">
+      <c r="F23" s="8">
         <v>31068522</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
         <v>36312634</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="8">
         <v>39612964</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>43232159</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>45515555</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>48395728</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>50767147</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>55407286</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <v>57433208</v>
       </c>
-      <c r="N23" s="9">
+      <c r="O23" s="9">
         <v>59734749</v>
       </c>
-      <c r="O23" s="9">
+      <c r="P23" s="9">
         <v>62241185</v>
       </c>
-      <c r="P23" s="9">
-        <v>65290167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="Q23" s="9">
+        <v>65604558</v>
+      </c>
+      <c r="R23" s="9">
+        <v>68601793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6">
+      <c r="C24" s="6">
         <v>34085555</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <v>36251989</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <v>38480137</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="8">
         <v>41087267</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <v>46282464</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="8">
         <v>48459691</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>52246692</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <v>55246506</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>58089686</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <v>60317057</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <v>66773555</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <v>68972064</v>
       </c>
-      <c r="N24" s="9">
+      <c r="O24" s="9">
         <v>71127391</v>
       </c>
-      <c r="O24" s="9">
+      <c r="P24" s="9">
         <v>73590977</v>
       </c>
-      <c r="P24" s="9">
-        <v>76616418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="Q24" s="9">
+        <v>77083608</v>
+      </c>
+      <c r="R24" s="9">
+        <v>79764382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6">
+      <c r="C25" s="6">
         <v>7992005</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="6">
         <v>8539189</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="6">
         <v>9117870</v>
       </c>
-      <c r="E25" s="8">
+      <c r="F25" s="8">
         <v>9841358</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>11304228</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="8">
         <v>11937266</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <v>12838167</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <v>13365098</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>14054566</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <v>14250876</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <v>14587513</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <v>14268185</v>
       </c>
-      <c r="N25" s="9">
+      <c r="O25" s="9">
         <v>14781287</v>
       </c>
-      <c r="O25" s="9">
+      <c r="P25" s="9">
         <v>15354639</v>
       </c>
-      <c r="P25" s="9">
-        <v>15902120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="Q25" s="9">
+        <v>16004762</v>
+      </c>
+      <c r="R25" s="9">
+        <v>16445350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6">
+      <c r="C26" s="6">
         <v>38571283</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="6">
         <v>41254233</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="6">
         <v>42523851</v>
       </c>
-      <c r="E26" s="8">
+      <c r="F26" s="8">
         <v>44043884</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <v>50759378</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="8">
         <v>55347055</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <v>61714828</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>65304569</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>69156802</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <v>71561745</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <v>78875613</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>82038470</v>
       </c>
-      <c r="N26" s="9">
+      <c r="O26" s="9">
         <v>85289840</v>
       </c>
-      <c r="O26" s="9">
+      <c r="P26" s="9">
         <v>88363854</v>
       </c>
-      <c r="P26" s="9">
-        <v>92988502</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="Q26" s="9">
+        <v>93319105</v>
+      </c>
+      <c r="R26" s="9">
+        <v>98644287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6">
+      <c r="C27" s="6">
         <v>54133151</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="6">
         <v>59493156</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <v>65504029</v>
       </c>
-      <c r="E27" s="8">
+      <c r="F27" s="8">
         <v>72836390</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="8">
         <v>83722382</v>
       </c>
-      <c r="G27" s="8">
+      <c r="H27" s="8">
         <v>87995012</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <v>94253512</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>97774852</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>102028289</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <v>105541966</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>117541701</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>123194238</v>
       </c>
-      <c r="N27" s="9">
+      <c r="O27" s="9">
         <v>128883420</v>
       </c>
-      <c r="O27" s="9">
+      <c r="P27" s="9">
         <v>135150166</v>
       </c>
-      <c r="P27" s="9">
-        <v>143678250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="Q27" s="9">
+        <v>146109250</v>
+      </c>
+      <c r="R27" s="9">
+        <v>155647975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6">
+      <c r="C28" s="6">
         <v>58532784</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="6">
         <v>62854967</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="6">
         <v>67182054</v>
       </c>
-      <c r="E28" s="8">
+      <c r="F28" s="8">
         <v>71886856</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
         <v>82165039</v>
       </c>
-      <c r="G28" s="8">
+      <c r="H28" s="8">
         <v>86061886</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>91064334</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <v>93762452</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <v>97981234</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>102041977</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <v>114492026</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>121505088</v>
       </c>
-      <c r="N28" s="9">
+      <c r="O28" s="9">
         <v>124270737</v>
       </c>
-      <c r="O28" s="9">
+      <c r="P28" s="9">
         <v>126174820</v>
       </c>
-      <c r="P28" s="9">
-        <v>129845576</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="Q28" s="9">
+        <v>130035570</v>
+      </c>
+      <c r="R28" s="9">
+        <v>131704181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="6">
+      <c r="C29" s="6">
         <v>39147615</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="6">
         <v>42230729</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="6">
         <v>44885357</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F29" s="8">
         <v>47575407</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="8">
         <v>53886656</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="8">
         <v>57290385</v>
       </c>
-      <c r="H29" s="6">
+      <c r="I29" s="6">
         <v>60925113</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <v>62844140</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>65257214</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L29" s="8">
         <v>64828272</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <v>68635926</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <v>71413850</v>
       </c>
-      <c r="N29" s="9">
+      <c r="O29" s="9">
         <v>74016837</v>
       </c>
-      <c r="O29" s="9">
+      <c r="P29" s="9">
         <v>78137620</v>
       </c>
-      <c r="P29" s="9">
-        <v>83246426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="Q29" s="9">
+        <v>83670556</v>
+      </c>
+      <c r="R29" s="9">
+        <v>88699359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="6">
+      <c r="C30" s="6">
         <v>16338407</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="6">
         <v>17640882</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="6">
         <v>19249243</v>
       </c>
-      <c r="E30" s="8">
+      <c r="F30" s="8">
         <v>20849710</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <v>23726097</v>
       </c>
-      <c r="G30" s="8">
+      <c r="H30" s="8">
         <v>24962886</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <v>27182376</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <v>28665105</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>30658555</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>32188085</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <v>35850857</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <v>37798545</v>
       </c>
-      <c r="N30" s="9">
+      <c r="O30" s="9">
         <v>39656852</v>
       </c>
-      <c r="O30" s="9">
+      <c r="P30" s="9">
         <v>41314757</v>
       </c>
-      <c r="P30" s="9">
-        <v>44018806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="Q30" s="9">
+        <v>44111997</v>
+      </c>
+      <c r="R30" s="9">
+        <v>46971389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="6">
+      <c r="C31" s="6">
         <v>41234714</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="6">
         <v>45828407</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="6">
         <v>49696414</v>
       </c>
-      <c r="E31" s="8">
+      <c r="F31" s="8">
         <v>52751903</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <v>60595952</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <v>64424529</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>71291795</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <v>75869227</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>79528799</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <v>82859858</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <v>88902100</v>
       </c>
-      <c r="M31" s="6">
+      <c r="N31" s="6">
         <v>88952216</v>
       </c>
-      <c r="N31" s="9">
+      <c r="O31" s="9">
         <v>92218534</v>
       </c>
-      <c r="O31" s="9">
+      <c r="P31" s="9">
         <v>96365014</v>
       </c>
-      <c r="P31" s="9">
-        <v>101515227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="Q31" s="9">
+        <v>102107766</v>
+      </c>
+      <c r="R31" s="9">
+        <v>106475476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6">
+      <c r="C32" s="6">
         <v>5098794</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="6">
         <v>5763966</v>
       </c>
-      <c r="D32" s="6">
+      <c r="E32" s="6">
         <v>6383542</v>
       </c>
-      <c r="E32" s="8">
+      <c r="F32" s="8">
         <v>6886873</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <v>7846104</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="8">
         <v>8298682</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>8988397</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <v>9396651</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>9934041</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <v>10440275</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <v>11763732</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="6">
         <v>12292174</v>
       </c>
-      <c r="N32" s="9">
+      <c r="O32" s="9">
         <v>12601328</v>
       </c>
-      <c r="O32" s="9">
+      <c r="P32" s="9">
         <v>13235710</v>
       </c>
-      <c r="P32" s="9">
-        <v>14179706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="Q32" s="9">
+        <v>14267650</v>
+      </c>
+      <c r="R32" s="9">
+        <v>14884995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6">
+      <c r="C33" s="6">
         <v>5654327</v>
       </c>
-      <c r="C33" s="6">
+      <c r="D33" s="6">
         <v>6087348</v>
       </c>
-      <c r="D33" s="6">
+      <c r="E33" s="6">
         <v>6686334</v>
       </c>
-      <c r="E33" s="8">
+      <c r="F33" s="8">
         <v>7713733</v>
       </c>
-      <c r="F33" s="8">
+      <c r="G33" s="8">
         <v>9109122</v>
       </c>
-      <c r="G33" s="8">
+      <c r="H33" s="8">
         <v>9736651</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <v>10630973</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="6">
         <v>11672456</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <v>12672576</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>13571781</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <v>15635504</v>
       </c>
-      <c r="M33" s="6">
+      <c r="N33" s="6">
         <v>16710628</v>
       </c>
-      <c r="N33" s="9">
+      <c r="O33" s="9">
         <v>17670886</v>
       </c>
-      <c r="O33" s="9">
+      <c r="P33" s="9">
         <v>18470570</v>
       </c>
-      <c r="P33" s="9">
-        <v>19340265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="Q33" s="9">
+        <v>19446823</v>
+      </c>
+      <c r="R33" s="9">
+        <v>20349288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6">
+      <c r="C34" s="6">
         <v>13642147</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="6">
         <v>15226000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E34" s="6">
         <v>16658855</v>
       </c>
-      <c r="E34" s="8">
+      <c r="F34" s="8">
         <v>18364297</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="8">
         <v>21975691</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="8">
         <v>24284823</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I34" s="6">
         <v>26821673</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <v>28824177</v>
       </c>
-      <c r="J34" s="8">
+      <c r="K34" s="8">
         <v>31755399</v>
       </c>
-      <c r="K34" s="8">
+      <c r="L34" s="8">
         <v>34112353</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <v>38812602</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="6">
         <v>40958545</v>
       </c>
-      <c r="N34" s="9">
+      <c r="O34" s="9">
         <v>44001502</v>
       </c>
-      <c r="O34" s="9">
+      <c r="P34" s="9">
         <v>47229012</v>
       </c>
-      <c r="P34" s="9">
-        <v>49808132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="Q34" s="9">
+        <v>50104421</v>
+      </c>
+      <c r="R34" s="9">
+        <v>52990320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="6">
+      <c r="C35" s="6">
         <v>5115527</v>
       </c>
-      <c r="C35" s="6">
+      <c r="D35" s="6">
         <v>5459059</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="6">
         <v>5846037</v>
       </c>
-      <c r="E35" s="8">
+      <c r="F35" s="8">
         <v>6257150</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <v>6994072</v>
       </c>
-      <c r="G35" s="8">
+      <c r="H35" s="8">
         <v>7200219</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="6">
         <v>7632195</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J35" s="6">
         <v>7984662</v>
       </c>
-      <c r="J35" s="8">
+      <c r="K35" s="8">
         <v>8687381</v>
       </c>
-      <c r="K35" s="8">
+      <c r="L35" s="8">
         <v>9285695</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <v>10529128</v>
       </c>
-      <c r="M35" s="6">
+      <c r="N35" s="6">
         <v>11003863</v>
       </c>
-      <c r="N35" s="9">
+      <c r="O35" s="9">
         <v>11430340</v>
       </c>
-      <c r="O35" s="9">
+      <c r="P35" s="9">
         <v>11897486</v>
       </c>
-      <c r="P35" s="9">
-        <v>12438247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="Q35" s="9">
+        <v>12498603</v>
+      </c>
+      <c r="R35" s="9">
+        <v>13296852</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6">
+      <c r="C36" s="6">
         <v>75106303</v>
       </c>
-      <c r="C36" s="6">
+      <c r="D36" s="6">
         <v>84165456</v>
       </c>
-      <c r="D36" s="6">
+      <c r="E36" s="6">
         <v>91222518</v>
       </c>
-      <c r="E36" s="8">
+      <c r="F36" s="8">
         <v>97157892</v>
       </c>
-      <c r="F36" s="8">
+      <c r="G36" s="8">
         <v>110908610</v>
       </c>
-      <c r="G36" s="8">
+      <c r="H36" s="8">
         <v>119882160</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>130998270</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <v>137987418</v>
       </c>
-      <c r="J36" s="8">
+      <c r="K36" s="8">
         <v>147677929</v>
       </c>
-      <c r="K36" s="8">
+      <c r="L36" s="8">
         <v>145608212</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <v>151064684</v>
       </c>
-      <c r="M36" s="6">
+      <c r="N36" s="6">
         <v>155946426</v>
       </c>
-      <c r="N36" s="9">
+      <c r="O36" s="9">
         <v>161475595</v>
       </c>
-      <c r="O36" s="9">
+      <c r="P36" s="9">
         <v>167202664</v>
       </c>
-      <c r="P36" s="9">
-        <v>174661474</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="Q36" s="9">
+        <v>175361895</v>
+      </c>
+      <c r="R36" s="9">
+        <v>181592882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6">
+      <c r="C37" s="6">
         <v>14090036</v>
       </c>
-      <c r="C37" s="6">
+      <c r="D37" s="6">
         <v>15489130</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="6">
         <v>16819462</v>
       </c>
-      <c r="E37" s="8">
+      <c r="F37" s="8">
         <v>18383140</v>
       </c>
-      <c r="F37" s="8">
+      <c r="G37" s="8">
         <v>21353957</v>
       </c>
-      <c r="G37" s="8">
+      <c r="H37" s="8">
         <v>23102683</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>25548737</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>27026211</v>
       </c>
-      <c r="J37" s="8">
+      <c r="K37" s="8">
         <v>28805381</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>30505580</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <v>34586422</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="6">
         <v>36538930</v>
       </c>
-      <c r="N37" s="9">
+      <c r="O37" s="9">
         <v>37576825</v>
       </c>
-      <c r="O37" s="9">
+      <c r="P37" s="9">
         <v>38503846</v>
       </c>
-      <c r="P37" s="9">
-        <v>40635611</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="Q37" s="9">
+        <v>40862096</v>
+      </c>
+      <c r="R37" s="9">
+        <v>43370209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="6">
+      <c r="C38" s="6">
         <v>234810831</v>
       </c>
-      <c r="C38" s="6">
+      <c r="D38" s="6">
         <v>247661396</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <v>263054808</v>
       </c>
-      <c r="E38" s="8">
+      <c r="F38" s="8">
         <v>281822023</v>
       </c>
-      <c r="F38" s="8">
+      <c r="G38" s="8">
         <v>317011590</v>
       </c>
-      <c r="G38" s="8">
+      <c r="H38" s="8">
         <v>332167715</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <v>356827109</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <v>371036531</v>
       </c>
-      <c r="J38" s="8">
+      <c r="K38" s="8">
         <v>385708368</v>
       </c>
-      <c r="K38" s="8">
+      <c r="L38" s="8">
         <v>393861469</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <v>440065827</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="6">
         <v>461030478</v>
       </c>
-      <c r="N38" s="9">
+      <c r="O38" s="9">
         <v>478569102</v>
       </c>
-      <c r="O38" s="9">
+      <c r="P38" s="9">
         <v>497782462</v>
       </c>
-      <c r="P38" s="9">
-        <v>519727944</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="Q38" s="9">
+        <v>523867224</v>
+      </c>
+      <c r="R38" s="9">
+        <v>548616937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="6">
+      <c r="C39" s="6">
         <v>40435954</v>
       </c>
-      <c r="C39" s="6">
+      <c r="D39" s="6">
         <v>43888619</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="6">
         <v>47254181</v>
       </c>
-      <c r="E39" s="8">
+      <c r="F39" s="8">
         <v>50625871</v>
       </c>
-      <c r="F39" s="8">
+      <c r="G39" s="8">
         <v>57700089</v>
       </c>
-      <c r="G39" s="8">
+      <c r="H39" s="8">
         <v>61303876</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="6">
         <v>65927932</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <v>69212506</v>
       </c>
-      <c r="J39" s="8">
+      <c r="K39" s="8">
         <v>73274910</v>
       </c>
-      <c r="K39" s="8">
+      <c r="L39" s="8">
         <v>76802573</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <v>86289706</v>
       </c>
-      <c r="M39" s="6">
+      <c r="N39" s="6">
         <v>89553668</v>
       </c>
-      <c r="N39" s="9">
+      <c r="O39" s="9">
         <v>92991324</v>
       </c>
-      <c r="O39" s="9">
+      <c r="P39" s="9">
         <v>96235908</v>
       </c>
-      <c r="P39" s="9">
-        <v>100133526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="Q39" s="9">
+        <v>100713335</v>
+      </c>
+      <c r="R39" s="9">
+        <v>106155308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="6">
+      <c r="C40" s="6">
         <v>2082193</v>
       </c>
-      <c r="C40" s="6">
+      <c r="D40" s="6">
         <v>2330468</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="6">
         <v>2528716</v>
       </c>
-      <c r="E40" s="8">
+      <c r="F40" s="8">
         <v>2751974</v>
       </c>
-      <c r="F40" s="8">
+      <c r="G40" s="8">
         <v>3209732</v>
       </c>
-      <c r="G40" s="8">
+      <c r="H40" s="8">
         <v>3457433</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <v>3801017</v>
       </c>
-      <c r="I40" s="6">
+      <c r="J40" s="6">
         <v>4047406</v>
       </c>
-      <c r="J40" s="8">
+      <c r="K40" s="8">
         <v>4318349</v>
       </c>
-      <c r="K40" s="8">
+      <c r="L40" s="8">
         <v>4695614</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <v>5455779</v>
       </c>
-      <c r="M40" s="6">
+      <c r="N40" s="6">
         <v>5780259</v>
       </c>
-      <c r="N40" s="9">
+      <c r="O40" s="9">
         <v>6149976</v>
       </c>
-      <c r="O40" s="9">
+      <c r="P40" s="9">
         <v>6561766</v>
       </c>
-      <c r="P40" s="9">
-        <v>7051071</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="Q40" s="9">
+        <v>7071782</v>
+      </c>
+      <c r="R40" s="9">
+        <v>7667090</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="6">
+      <c r="C41" s="6">
         <v>106592445</v>
       </c>
-      <c r="C41" s="6">
+      <c r="D41" s="6">
         <v>114810644</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="6">
         <v>123547038</v>
       </c>
-      <c r="E41" s="8">
+      <c r="F41" s="8">
         <v>134142608</v>
       </c>
-      <c r="F41" s="8">
+      <c r="G41" s="8">
         <v>153908333</v>
       </c>
-      <c r="G41" s="8">
+      <c r="H41" s="8">
         <v>163521957</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="6">
         <v>177063678</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <v>185376202</v>
       </c>
-      <c r="J41" s="8">
+      <c r="K41" s="8">
         <v>196381624</v>
       </c>
-      <c r="K41" s="8">
+      <c r="L41" s="8">
         <v>204592159</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <v>229284941</v>
       </c>
-      <c r="M41" s="6">
+      <c r="N41" s="6">
         <v>242169671</v>
       </c>
-      <c r="N41" s="9">
+      <c r="O41" s="9">
         <v>244723257</v>
       </c>
-      <c r="O41" s="9">
+      <c r="P41" s="9">
         <v>243953777</v>
       </c>
-      <c r="P41" s="9">
-        <v>252706297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="Q41" s="9">
+        <v>254291639</v>
+      </c>
+      <c r="R41" s="9">
+        <v>263927487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="6">
+      <c r="C42" s="6">
         <v>18131259</v>
       </c>
-      <c r="C42" s="6">
+      <c r="D42" s="6">
         <v>19874460</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <v>20696561</v>
       </c>
-      <c r="E42" s="8">
+      <c r="F42" s="8">
         <v>22448259</v>
       </c>
-      <c r="F42" s="8">
+      <c r="G42" s="8">
         <v>25874732</v>
       </c>
-      <c r="G42" s="8">
+      <c r="H42" s="8">
         <v>27211847</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="6">
         <v>29487174</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <v>31489268</v>
       </c>
-      <c r="J42" s="8">
+      <c r="K42" s="8">
         <v>33822983</v>
       </c>
-      <c r="K42" s="8">
+      <c r="L42" s="8">
         <v>35280342</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <v>36210786</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <v>36680324</v>
       </c>
-      <c r="N42" s="9">
+      <c r="O42" s="9">
         <v>38107800</v>
       </c>
-      <c r="O42" s="9">
+      <c r="P42" s="9">
         <v>39401583</v>
       </c>
-      <c r="P42" s="9">
-        <v>41169433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="Q42" s="9">
+        <v>41407231</v>
+      </c>
+      <c r="R42" s="9">
+        <v>43319250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="6">
+      <c r="C43" s="6">
         <v>37099533</v>
       </c>
-      <c r="C43" s="6">
+      <c r="D43" s="6">
         <v>38858269</v>
       </c>
-      <c r="D43" s="6">
+      <c r="E43" s="6">
         <v>40410701</v>
       </c>
-      <c r="E43" s="8">
+      <c r="F43" s="8">
         <v>42272186</v>
       </c>
-      <c r="F43" s="8">
+      <c r="G43" s="8">
         <v>50416987</v>
       </c>
-      <c r="G43" s="8">
+      <c r="H43" s="8">
         <v>55629413</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="6">
         <v>58882810</v>
       </c>
-      <c r="I43" s="6">
+      <c r="J43" s="6">
         <v>60054518</v>
       </c>
-      <c r="J43" s="8">
+      <c r="K43" s="8">
         <v>61886614</v>
       </c>
-      <c r="K43" s="8">
+      <c r="L43" s="8">
         <v>63878800</v>
       </c>
-      <c r="L43" s="6">
+      <c r="M43" s="6">
         <v>71794372</v>
       </c>
-      <c r="M43" s="6">
+      <c r="N43" s="6">
         <v>74939380</v>
       </c>
-      <c r="N43" s="9">
+      <c r="O43" s="9">
         <v>73947175</v>
       </c>
-      <c r="O43" s="9">
+      <c r="P43" s="9">
         <v>73070126</v>
       </c>
-      <c r="P43" s="9">
-        <v>79863697</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="Q43" s="9">
+        <v>80278506</v>
+      </c>
+      <c r="R43" s="9">
+        <v>89066496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="6">
+      <c r="C44" s="6">
         <v>75073360</v>
       </c>
-      <c r="C44" s="6">
+      <c r="D44" s="6">
         <v>84678885</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="6">
         <v>92981933</v>
       </c>
-      <c r="E44" s="8">
+      <c r="F44" s="8">
         <v>100289035</v>
       </c>
-      <c r="F44" s="8">
+      <c r="G44" s="8">
         <v>115430270</v>
       </c>
-      <c r="G44" s="8">
+      <c r="H44" s="8">
         <v>123355004</v>
       </c>
-      <c r="H44" s="6">
+      <c r="I44" s="6">
         <v>131358625</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <v>137432658</v>
       </c>
-      <c r="J44" s="8">
+      <c r="K44" s="8">
         <v>145642727</v>
       </c>
-      <c r="K44" s="8">
+      <c r="L44" s="8">
         <v>152205806</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="6">
         <v>170247708</v>
       </c>
-      <c r="M44" s="6">
+      <c r="N44" s="6">
         <v>176432589</v>
       </c>
-      <c r="N44" s="9">
+      <c r="O44" s="9">
         <v>181808574</v>
       </c>
-      <c r="O44" s="9">
+      <c r="P44" s="9">
         <v>186825237</v>
       </c>
-      <c r="P44" s="9">
-        <v>192829279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="Q44" s="9">
+        <v>193897368</v>
+      </c>
+      <c r="R44" s="9">
+        <v>201584506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="6">
+      <c r="C45" s="6">
         <v>9486746</v>
       </c>
-      <c r="C45" s="6">
+      <c r="D45" s="6">
         <v>10106591</v>
       </c>
-      <c r="D45" s="6">
+      <c r="E45" s="6">
         <v>11031541</v>
       </c>
-      <c r="E45" s="8">
+      <c r="F45" s="8">
         <v>11958287</v>
       </c>
-      <c r="F45" s="8">
+      <c r="G45" s="8">
         <v>13513895</v>
       </c>
-      <c r="G45" s="8">
+      <c r="H45" s="8">
         <v>14496442</v>
       </c>
-      <c r="H45" s="6">
+      <c r="I45" s="6">
         <v>15746557</v>
       </c>
-      <c r="I45" s="6">
+      <c r="J45" s="6">
         <v>16052022</v>
       </c>
-      <c r="J45" s="8">
+      <c r="K45" s="8">
         <v>16559775</v>
       </c>
-      <c r="K45" s="8">
+      <c r="L45" s="8">
         <v>16153169</v>
       </c>
-      <c r="L45" s="6">
+      <c r="M45" s="6">
         <v>16142783</v>
       </c>
-      <c r="M45" s="6">
+      <c r="N45" s="6">
         <v>16199621</v>
       </c>
-      <c r="N45" s="9">
+      <c r="O45" s="9">
         <v>16405470</v>
       </c>
-      <c r="O45" s="9">
+      <c r="P45" s="9">
         <v>16428740</v>
       </c>
-      <c r="P45" s="9">
-        <v>16904217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="Q45" s="9">
+        <v>16956502</v>
+      </c>
+      <c r="R45" s="9">
+        <v>17706833</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="6">
+      <c r="C46" s="6">
         <v>19117654</v>
       </c>
-      <c r="C46" s="6">
+      <c r="D46" s="6">
         <v>20849238</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="6">
         <v>22889581</v>
       </c>
-      <c r="E46" s="8">
+      <c r="F46" s="8">
         <v>25160402</v>
       </c>
-      <c r="F46" s="8">
+      <c r="G46" s="8">
         <v>30270222</v>
       </c>
-      <c r="G46" s="8">
+      <c r="H46" s="8">
         <v>33614091</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <v>36329457</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <v>39266139</v>
       </c>
-      <c r="J46" s="8">
+      <c r="K46" s="8">
         <v>42586722</v>
       </c>
-      <c r="K46" s="8">
+      <c r="L46" s="8">
         <v>44237874</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M46" s="6">
         <v>47157204</v>
       </c>
-      <c r="M46" s="6">
+      <c r="N46" s="6">
         <v>47025327</v>
       </c>
-      <c r="N46" s="9">
+      <c r="O46" s="9">
         <v>49360301</v>
       </c>
-      <c r="O46" s="9">
+      <c r="P46" s="9">
         <v>51671662</v>
       </c>
-      <c r="P46" s="9">
-        <v>53564534</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="Q46" s="9">
+        <v>53975765</v>
+      </c>
+      <c r="R46" s="9">
+        <v>55833267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="6">
+      <c r="C47" s="6">
         <v>5186812</v>
       </c>
-      <c r="C47" s="6">
+      <c r="D47" s="6">
         <v>5775453</v>
       </c>
-      <c r="D47" s="6">
+      <c r="E47" s="6">
         <v>6187763</v>
       </c>
-      <c r="E47" s="8">
+      <c r="F47" s="8">
         <v>6771054</v>
       </c>
-      <c r="F47" s="8">
+      <c r="G47" s="8">
         <v>7737284</v>
       </c>
-      <c r="G47" s="8">
+      <c r="H47" s="8">
         <v>8354428</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <v>8991608</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>9325222</v>
       </c>
-      <c r="J47" s="8">
+      <c r="K47" s="8">
         <v>9817889</v>
       </c>
-      <c r="K47" s="8">
+      <c r="L47" s="8">
         <v>10380859</v>
       </c>
-      <c r="L47" s="6">
+      <c r="M47" s="6">
         <v>11836220</v>
       </c>
-      <c r="M47" s="6">
+      <c r="N47" s="6">
         <v>12591533</v>
       </c>
-      <c r="N47" s="9">
+      <c r="O47" s="9">
         <v>13355501</v>
       </c>
-      <c r="O47" s="9">
+      <c r="P47" s="9">
         <v>14510596</v>
       </c>
-      <c r="P47" s="9">
-        <v>15809994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="Q47" s="9">
+        <v>15906963</v>
+      </c>
+      <c r="R47" s="9">
+        <v>16812714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="6">
+      <c r="C48" s="6">
         <v>22002666</v>
       </c>
-      <c r="C48" s="6">
+      <c r="D48" s="6">
         <v>23730292</v>
       </c>
-      <c r="D48" s="6">
+      <c r="E48" s="6">
         <v>25302456</v>
       </c>
-      <c r="E48" s="8">
+      <c r="F48" s="8">
         <v>27342244</v>
       </c>
-      <c r="F48" s="8">
+      <c r="G48" s="8">
         <v>31791328</v>
       </c>
-      <c r="G48" s="8">
+      <c r="H48" s="8">
         <v>33780190</v>
       </c>
-      <c r="H48" s="6">
+      <c r="I48" s="6">
         <v>36330249</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <v>37580080</v>
       </c>
-      <c r="J48" s="8">
+      <c r="K48" s="8">
         <v>39041818</v>
       </c>
-      <c r="K48" s="8">
+      <c r="L48" s="8">
         <v>40879240</v>
       </c>
-      <c r="L48" s="6">
+      <c r="M48" s="6">
         <v>46559814</v>
       </c>
-      <c r="M48" s="6">
+      <c r="N48" s="6">
         <v>48754451</v>
       </c>
-      <c r="N48" s="9">
+      <c r="O48" s="9">
         <v>50491309</v>
       </c>
-      <c r="O48" s="9">
+      <c r="P48" s="9">
         <v>52297384</v>
       </c>
-      <c r="P48" s="9">
-        <v>54577165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="Q48" s="9">
+        <v>54856543</v>
+      </c>
+      <c r="R48" s="9">
+        <v>56985183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="6">
+      <c r="C49" s="6">
         <v>95035163</v>
       </c>
-      <c r="C49" s="6">
+      <c r="D49" s="6">
         <v>107351947</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="6">
         <v>118538931</v>
       </c>
-      <c r="E49" s="8">
+      <c r="F49" s="8">
         <v>127971199</v>
       </c>
-      <c r="F49" s="8">
+      <c r="G49" s="8">
         <v>147125825</v>
       </c>
-      <c r="G49" s="8">
+      <c r="H49" s="8">
         <v>154040916</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>164412068</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>174657588</v>
       </c>
-      <c r="J49" s="8">
+      <c r="K49" s="8">
         <v>182902234</v>
       </c>
-      <c r="K49" s="8">
+      <c r="L49" s="8">
         <v>192715011</v>
       </c>
-      <c r="L49" s="6">
+      <c r="M49" s="6">
         <v>218875549</v>
       </c>
-      <c r="M49" s="6">
+      <c r="N49" s="6">
         <v>229752859</v>
       </c>
-      <c r="N49" s="9">
+      <c r="O49" s="9">
         <v>240558020</v>
       </c>
-      <c r="O49" s="9">
+      <c r="P49" s="9">
         <v>252705615</v>
       </c>
-      <c r="P49" s="9">
-        <v>269338102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="Q49" s="9">
+        <v>270725679</v>
+      </c>
+      <c r="R49" s="9">
+        <v>289696429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="6">
+      <c r="C50" s="6">
         <v>11400007</v>
       </c>
-      <c r="C50" s="6">
+      <c r="D50" s="6">
         <v>12489712</v>
       </c>
-      <c r="D50" s="6">
+      <c r="E50" s="6">
         <v>13475810</v>
       </c>
-      <c r="E50" s="8">
+      <c r="F50" s="8">
         <v>14432907</v>
       </c>
-      <c r="F50" s="8">
+      <c r="G50" s="8">
         <v>16463062</v>
       </c>
-      <c r="G50" s="8">
+      <c r="H50" s="8">
         <v>17445654</v>
       </c>
-      <c r="H50" s="6">
+      <c r="I50" s="6">
         <v>18924420</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>20128399</v>
       </c>
-      <c r="J50" s="8">
+      <c r="K50" s="8">
         <v>21740632</v>
       </c>
-      <c r="K50" s="8">
+      <c r="L50" s="8">
         <v>23096159</v>
       </c>
-      <c r="L50" s="6">
+      <c r="M50" s="6">
         <v>25847561</v>
       </c>
-      <c r="M50" s="6">
+      <c r="N50" s="6">
         <v>26873803</v>
       </c>
-      <c r="N50" s="9">
+      <c r="O50" s="9">
         <v>27993675</v>
       </c>
-      <c r="O50" s="9">
+      <c r="P50" s="9">
         <v>29157155</v>
       </c>
-      <c r="P50" s="9">
-        <v>30357554</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="Q50" s="9">
+        <v>30518784</v>
+      </c>
+      <c r="R50" s="9">
+        <v>31843453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="6">
+      <c r="C51" s="6">
         <v>2350214</v>
       </c>
-      <c r="C51" s="6">
+      <c r="D51" s="6">
         <v>2502113</v>
       </c>
-      <c r="D51" s="6">
+      <c r="E51" s="6">
         <v>2623080</v>
       </c>
-      <c r="E51" s="8">
+      <c r="F51" s="8">
         <v>2825147</v>
       </c>
-      <c r="F51" s="8">
+      <c r="G51" s="8">
         <v>3264559</v>
       </c>
-      <c r="G51" s="8">
+      <c r="H51" s="8">
         <v>3474409</v>
       </c>
-      <c r="H51" s="6">
+      <c r="I51" s="6">
         <v>3843047</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>4152744</v>
       </c>
-      <c r="J51" s="8">
+      <c r="K51" s="8">
         <v>4523373</v>
       </c>
-      <c r="K51" s="8">
+      <c r="L51" s="8">
         <v>4722681</v>
       </c>
-      <c r="L51" s="6">
+      <c r="M51" s="6">
         <v>5371280</v>
       </c>
-      <c r="M51" s="6">
+      <c r="N51" s="6">
         <v>5785394</v>
       </c>
-      <c r="N51" s="9">
+      <c r="O51" s="9">
         <v>6137089</v>
       </c>
-      <c r="O51" s="9">
+      <c r="P51" s="9">
         <v>6499316</v>
       </c>
-      <c r="P51" s="9">
-        <v>6942223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="Q51" s="9">
+        <v>6959786</v>
+      </c>
+      <c r="R51" s="9">
+        <v>7350716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="6">
+      <c r="C52" s="6">
         <v>36962357</v>
       </c>
-      <c r="C52" s="6">
+      <c r="D52" s="6">
         <v>40524292</v>
       </c>
-      <c r="D52" s="6">
+      <c r="E52" s="6">
         <v>43975146</v>
       </c>
-      <c r="E52" s="8">
+      <c r="F52" s="8">
         <v>47482013</v>
       </c>
-      <c r="F52" s="8">
+      <c r="G52" s="8">
         <v>55767422</v>
       </c>
-      <c r="G52" s="8">
+      <c r="H52" s="8">
         <v>59930396</v>
       </c>
-      <c r="H52" s="6">
+      <c r="I52" s="6">
         <v>66805542</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <v>71869413</v>
       </c>
-      <c r="J52" s="8">
+      <c r="K52" s="8">
         <v>77018396</v>
       </c>
-      <c r="K52" s="8">
+      <c r="L52" s="8">
         <v>81200450</v>
       </c>
-      <c r="L52" s="6">
+      <c r="M52" s="6">
         <v>90804548</v>
       </c>
-      <c r="M52" s="6">
+      <c r="N52" s="6">
         <v>94456909</v>
       </c>
-      <c r="N52" s="9">
+      <c r="O52" s="9">
         <v>97575821</v>
       </c>
-      <c r="O52" s="9">
+      <c r="P52" s="9">
         <v>100867276</v>
       </c>
-      <c r="P52" s="9">
-        <v>105295451</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="Q52" s="9">
+        <v>105935100</v>
+      </c>
+      <c r="R52" s="9">
+        <v>110510162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="6">
+      <c r="C53" s="6">
         <v>39592555</v>
       </c>
-      <c r="C53" s="6">
+      <c r="D53" s="6">
         <v>41777523</v>
       </c>
-      <c r="D53" s="6">
+      <c r="E53" s="6">
         <v>44287363</v>
       </c>
-      <c r="E53" s="8">
+      <c r="F53" s="8">
         <v>47141121</v>
       </c>
-      <c r="F53" s="8">
+      <c r="G53" s="8">
         <v>54311936</v>
       </c>
-      <c r="G53" s="8">
+      <c r="H53" s="8">
         <v>57917253</v>
       </c>
-      <c r="H53" s="6">
+      <c r="I53" s="6">
         <v>61321246</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <v>62848467</v>
       </c>
-      <c r="J53" s="8">
+      <c r="K53" s="8">
         <v>66630331</v>
       </c>
-      <c r="K53" s="8">
+      <c r="L53" s="8">
         <v>68112136</v>
       </c>
-      <c r="L53" s="6">
+      <c r="M53" s="6">
         <v>74269653</v>
       </c>
-      <c r="M53" s="6">
+      <c r="N53" s="6">
         <v>77194508</v>
       </c>
-      <c r="N53" s="9">
+      <c r="O53" s="9">
         <v>82320968</v>
       </c>
-      <c r="O53" s="9">
+      <c r="P53" s="9">
         <v>89257635</v>
       </c>
-      <c r="P53" s="9">
-        <v>95304276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="Q53" s="9">
+        <v>95951796</v>
+      </c>
+      <c r="R53" s="9">
+        <v>98306437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="6">
+      <c r="C54" s="6">
         <v>7168388</v>
       </c>
-      <c r="C54" s="6">
+      <c r="D54" s="6">
         <v>7705344</v>
       </c>
-      <c r="D54" s="6">
+      <c r="E54" s="6">
         <v>8339113</v>
       </c>
-      <c r="E54" s="8">
+      <c r="F54" s="8">
         <v>8967995</v>
       </c>
-      <c r="F54" s="8">
+      <c r="G54" s="8">
         <v>10058093</v>
       </c>
-      <c r="G54" s="8">
+      <c r="H54" s="8">
         <v>10568490</v>
       </c>
-      <c r="H54" s="6">
+      <c r="I54" s="6">
         <v>11373255</v>
       </c>
-      <c r="I54" s="6">
+      <c r="J54" s="6">
         <v>12130000</v>
       </c>
-      <c r="J54" s="8">
+      <c r="K54" s="8">
         <v>13069336</v>
       </c>
-      <c r="K54" s="8">
+      <c r="L54" s="8">
         <v>13744738</v>
       </c>
-      <c r="L54" s="6">
+      <c r="M54" s="6">
         <v>15610215</v>
       </c>
-      <c r="M54" s="6">
+      <c r="N54" s="6">
         <v>16403880</v>
       </c>
-      <c r="N54" s="9">
+      <c r="O54" s="9">
         <v>17039423</v>
       </c>
-      <c r="O54" s="9">
+      <c r="P54" s="9">
         <v>17709371</v>
       </c>
-      <c r="P54" s="9">
-        <v>18424483</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="Q54" s="9">
+        <v>18529382</v>
+      </c>
+      <c r="R54" s="9">
+        <v>19319727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="6">
+      <c r="C55" s="6">
         <v>39827941</v>
       </c>
-      <c r="C55" s="6">
+      <c r="D55" s="6">
         <v>43391157</v>
       </c>
-      <c r="D55" s="6">
+      <c r="E55" s="6">
         <v>47082698</v>
       </c>
-      <c r="E55" s="8">
+      <c r="F55" s="8">
         <v>48526858</v>
       </c>
-      <c r="F55" s="8">
+      <c r="G55" s="8">
         <v>55033188</v>
       </c>
-      <c r="G55" s="8">
+      <c r="H55" s="8">
         <v>58017070</v>
       </c>
-      <c r="H55" s="6">
+      <c r="I55" s="6">
         <v>62449514</v>
       </c>
-      <c r="I55" s="6">
+      <c r="J55" s="6">
         <v>65457847</v>
       </c>
-      <c r="J55" s="8">
+      <c r="K55" s="8">
         <v>69604990</v>
       </c>
-      <c r="K55" s="8">
+      <c r="L55" s="8">
         <v>70854463</v>
       </c>
-      <c r="L55" s="6">
+      <c r="M55" s="6">
         <v>75207503</v>
       </c>
-      <c r="M55" s="6">
+      <c r="N55" s="6">
         <v>76894566</v>
       </c>
-      <c r="N55" s="9">
+      <c r="O55" s="9">
         <v>78088501</v>
       </c>
-      <c r="O55" s="9">
+      <c r="P55" s="9">
         <v>78746905</v>
       </c>
-      <c r="P55" s="9">
-        <v>81821654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="Q55" s="9">
+        <v>82294218</v>
+      </c>
+      <c r="R55" s="9">
+        <v>85118681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="6">
+      <c r="C56" s="6">
         <v>3357593</v>
       </c>
-      <c r="C56" s="6">
+      <c r="D56" s="6">
         <v>3883698</v>
       </c>
-      <c r="D56" s="6">
+      <c r="E56" s="6">
         <v>4567371</v>
       </c>
-      <c r="E56" s="8">
+      <c r="F56" s="8">
         <v>4944924</v>
       </c>
-      <c r="F56" s="8">
+      <c r="G56" s="8">
         <v>5834808</v>
       </c>
-      <c r="G56" s="8">
+      <c r="H56" s="8">
         <v>5887987</v>
       </c>
-      <c r="H56" s="6">
+      <c r="I56" s="6">
         <v>5957215</v>
       </c>
-      <c r="I56" s="6">
+      <c r="J56" s="6">
         <v>6371869</v>
       </c>
-      <c r="J56" s="8">
+      <c r="K56" s="8">
         <v>6747287</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>7033310</v>
       </c>
-      <c r="L56" s="6">
+      <c r="M56" s="6">
         <v>8017904</v>
       </c>
-      <c r="M56" s="6">
+      <c r="N56" s="6">
         <v>8382794</v>
       </c>
-      <c r="N56" s="9">
+      <c r="O56" s="9">
         <v>8752325</v>
       </c>
-      <c r="O56" s="9">
+      <c r="P56" s="9">
         <v>9330414</v>
       </c>
-      <c r="P56" s="9">
-        <v>10123816</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="Q56" s="9">
+        <v>10061604</v>
+      </c>
+      <c r="R56" s="9">
+        <v>10612977</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A58:N58"/>
+  <mergeCells count="7">
+    <mergeCell ref="A57:R57"/>
+    <mergeCell ref="A58:R58"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A57:N57"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="C3:R3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <customProperties>
     <customPr name="SourceTableID" r:id="rId2"/>
@@ -4841,2804 +5397,3135 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16" width="14.6640625" style="4" customWidth="1"/>
-    <col min="17" max="22" width="15.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="17" width="14.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="23" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="5">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="5">
         <v>2000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>2001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>2002</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>2003</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>2004</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>2005</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>2006</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>2007</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>2008</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>2009</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>2010</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>2011</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>2012</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>2013</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>2014</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="R4" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C5" s="6">
         <v>98330000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <v>104665000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>109910000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>118745000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>137441000</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>140011000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>145556000</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>151791000</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>159377000</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>165642000</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>182026000</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>180395000</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>178743000</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>179255000</v>
       </c>
-      <c r="P5" s="6">
-        <v>179018000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="Q5" s="6">
+        <v>179201000</v>
+      </c>
+      <c r="R5" s="6">
+        <v>179586000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="C6" s="6">
         <v>1037840</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <v>1069952</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>1110833</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>1212742</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>1436477</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>1481942</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>1542823</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>1645772</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>1767048</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>1838961</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>2036200</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>1993743</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>1682038</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>1458751</v>
       </c>
-      <c r="P6" s="7">
-        <v>1493257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="Q6" s="7">
+        <v>1487785</v>
+      </c>
+      <c r="R6" s="14">
+        <v>1627259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="C7" s="6">
         <v>259961</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="6">
         <v>269328</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>279677</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>311071</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>345994</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>350548</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>401136</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>425167</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>415803</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>424707</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>480440</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>489178</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>493126</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="9">
         <v>477008</v>
       </c>
-      <c r="P7" s="9">
-        <v>504424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="Q7" s="9">
+        <v>502643</v>
+      </c>
+      <c r="R7" s="9">
+        <v>524743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="C8" s="6">
         <v>1210049</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>1396167</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>1435500</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>1424542</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>1586779</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>1743693</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>2004000</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>2215183</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>2381628</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>2485812</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>2795952</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>2896171</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>3026532</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>3004224</v>
       </c>
-      <c r="P8" s="9">
-        <v>2997635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="Q8" s="9">
+        <v>2996546</v>
+      </c>
+      <c r="R8" s="12">
+        <v>3207219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="C9" s="6">
         <v>594498</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6">
         <v>621354</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>619278</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>655862</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>760363</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>788164</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>820896</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>835468</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>852944</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <v>895286</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>1072685</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <v>1091813</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>1048716</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>1083759</v>
       </c>
-      <c r="P9" s="9">
-        <v>1072221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="Q9" s="9">
+        <v>1078076</v>
+      </c>
+      <c r="R9" s="13">
+        <v>1047553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6">
+      <c r="C10" s="6">
         <v>16778721</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <v>19264194</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>21547532</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>23592123</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <v>27944142</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>29264599</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>31122365</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>32915518</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>34621421</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>35486907</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>38218763</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>37362423</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>37183331</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>38334555</v>
       </c>
-      <c r="P10" s="9">
-        <v>39043300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="Q10" s="9">
+        <v>39184692</v>
+      </c>
+      <c r="R10" s="12">
+        <v>38371074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="C11" s="6">
         <v>1673966</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>1793138</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>1897399</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>1978667</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <v>2224356</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>2266213</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>2191624</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>2018597</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>2024114</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <v>2130205</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>2071768</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <v>1804120</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <v>1764016</v>
       </c>
-      <c r="O11" s="9">
+      <c r="P11" s="9">
         <v>1674835</v>
       </c>
-      <c r="P11" s="9">
-        <v>1671665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="Q11" s="9">
+        <v>1733567</v>
+      </c>
+      <c r="R11" s="13">
+        <v>1900935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="C12" s="6">
         <v>1084233</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="6">
         <v>1111089</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <v>1124475</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>1201212</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <v>1400485</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>1486795</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>1558755</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>1614539</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>1721421</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>1779937</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>1902240</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>1919586</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>1933830</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>2025649</v>
       </c>
-      <c r="P12" s="9">
-        <v>2038846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="Q12" s="9">
+        <v>2171655</v>
+      </c>
+      <c r="R12" s="12">
+        <v>2524353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6">
+      <c r="C13" s="6">
         <v>226388</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="6">
         <v>237904</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <v>250303</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>271337</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="8">
         <v>312836</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>328531</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>344909</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>355597</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>371154</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>384144</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>423333</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>441057</v>
       </c>
-      <c r="N13" s="9">
+      <c r="O13" s="9">
         <v>452401</v>
       </c>
-      <c r="O13" s="9">
+      <c r="P13" s="9">
         <v>461225</v>
       </c>
-      <c r="P13" s="9">
-        <v>458829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="Q13" s="9">
+        <v>457479</v>
+      </c>
+      <c r="R13" s="13">
+        <v>443002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
+      <c r="C14" s="6">
         <v>315918</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="6">
         <v>316933</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <v>335572</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="8">
         <v>374388</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <v>439210</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>445676</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>453160</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>456354</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>485353</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <v>496813</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>505278</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>534739</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>551149</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>556082</v>
       </c>
-      <c r="P14" s="9">
-        <v>585277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="Q14" s="9">
+        <v>576873</v>
+      </c>
+      <c r="R14" s="12">
+        <v>612689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="C15" s="6">
         <v>5138321</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="6">
         <v>5253276</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>5279064</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>5647841</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>6361607</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="8">
         <v>6422857</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>6773504</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>7062017</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>7234048</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <v>7264419</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>7780975</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>7188153</v>
       </c>
-      <c r="N15" s="9">
+      <c r="O15" s="9">
         <v>6698930</v>
       </c>
-      <c r="O15" s="9">
+      <c r="P15" s="9">
         <v>6639986</v>
       </c>
-      <c r="P15" s="9">
-        <v>6188373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="Q15" s="9">
+        <v>6216309</v>
+      </c>
+      <c r="R15" s="13">
+        <v>5964997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6">
+      <c r="C16" s="6">
         <v>2572185</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <v>2806796</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>2973970</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>3226531</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>3644766</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <v>3510369</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>3374393</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>3431466</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>3508111</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>3453700</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>3559858</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>3413031</v>
       </c>
-      <c r="N16" s="9">
+      <c r="O16" s="9">
         <v>3403889</v>
       </c>
-      <c r="O16" s="9">
+      <c r="P16" s="9">
         <v>3446198</v>
       </c>
-      <c r="P16" s="9">
-        <v>3482009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="Q16" s="9">
+        <v>3470494</v>
+      </c>
+      <c r="R16" s="12">
+        <v>3525863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="C17" s="6">
         <v>285281</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="6">
         <v>301053</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="6">
         <v>321917</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="8">
         <v>361934</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
         <v>420348</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="8">
         <v>430671</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>470401</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>533619</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>610332</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <v>677520</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>791429</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="6">
         <v>818200</v>
       </c>
-      <c r="N17" s="9">
+      <c r="O17" s="9">
         <v>829272</v>
       </c>
-      <c r="O17" s="9">
+      <c r="P17" s="9">
         <v>839395</v>
       </c>
-      <c r="P17" s="9">
-        <v>860888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="Q17" s="9">
+        <v>858433</v>
+      </c>
+      <c r="R17" s="13">
+        <v>913765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="6">
         <v>435352</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="6">
         <v>452410</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <v>434322</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="8">
         <v>437879</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <v>504256</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <v>521662</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>557783</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>598968</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>647127</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <v>669618</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>707886</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <v>689676</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="9">
         <v>706201</v>
       </c>
-      <c r="O18" s="9">
+      <c r="P18" s="9">
         <v>709718</v>
       </c>
-      <c r="P18" s="9">
-        <v>708196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="Q18" s="9">
+        <v>706541</v>
+      </c>
+      <c r="R18" s="12">
+        <v>724159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6">
+      <c r="C19" s="6">
         <v>4441043</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <v>4731235</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <v>4964214</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>5251753</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
         <v>6100983</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <v>6275559</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>6589702</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>7014099</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>7300447</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>7622991</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="6">
         <v>8591306</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <v>8870457</v>
       </c>
-      <c r="N19" s="9">
+      <c r="O19" s="9">
         <v>8966017</v>
       </c>
-      <c r="O19" s="9">
+      <c r="P19" s="9">
         <v>8857181</v>
       </c>
-      <c r="P19" s="9">
-        <v>8765814</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="Q19" s="9">
+        <v>8799593</v>
+      </c>
+      <c r="R19" s="13">
+        <v>8499086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6">
+      <c r="C20" s="6">
         <v>1087773</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="6">
         <v>1082143</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <v>1116266</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>1130856</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <v>1218525</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="8">
         <v>1290108</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>1405450</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>1506422</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <v>1538142</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>1531691</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>1678859</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>1690819</v>
       </c>
-      <c r="N20" s="9">
+      <c r="O20" s="9">
         <v>1595573</v>
       </c>
-      <c r="O20" s="9">
+      <c r="P20" s="9">
         <v>1560142</v>
       </c>
-      <c r="P20" s="9">
-        <v>1568474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="Q20" s="9">
+        <v>1563490</v>
+      </c>
+      <c r="R20" s="12">
+        <v>1463158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6">
+      <c r="C21" s="6">
         <v>621972</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <v>640771</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <v>663260</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="8">
         <v>720719</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="8">
         <v>843631</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <v>873507</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>906117</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>979641</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>1094095</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <v>1166568</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <v>1241909</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <v>1197303</v>
       </c>
-      <c r="N21" s="9">
+      <c r="O21" s="9">
         <v>1163888</v>
       </c>
-      <c r="O21" s="9">
+      <c r="P21" s="9">
         <v>1194870</v>
       </c>
-      <c r="P21" s="9">
-        <v>1285131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="Q21" s="9">
+        <v>1279738</v>
+      </c>
+      <c r="R21" s="13">
+        <v>1369474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6">
+      <c r="C22" s="6">
         <v>526546</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="6">
         <v>541464</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <v>559432</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="8">
         <v>607474</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>710496</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="8">
         <v>740290</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>789282</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <v>826507</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <v>898892</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <v>979183</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="6">
         <v>1120103</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <v>1172883</v>
       </c>
-      <c r="N22" s="9">
+      <c r="O22" s="9">
         <v>1182865</v>
       </c>
-      <c r="O22" s="9">
+      <c r="P22" s="9">
         <v>1105678</v>
       </c>
-      <c r="P22" s="9">
-        <v>1022641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="Q22" s="9">
+        <v>1017758</v>
+      </c>
+      <c r="R22" s="12">
+        <v>979950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6">
+      <c r="C23" s="6">
         <v>1081555</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="6">
         <v>1151637</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="6">
         <v>1231160</v>
       </c>
-      <c r="E23" s="8">
+      <c r="F23" s="8">
         <v>1321882</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
         <v>1524981</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="8">
         <v>1530784</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>1444460</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>1374714</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>1421619</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>1442141</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>1618949</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <v>1707750</v>
       </c>
-      <c r="N23" s="9">
+      <c r="O23" s="9">
         <v>1735270</v>
       </c>
-      <c r="O23" s="9">
+      <c r="P23" s="9">
         <v>1738663</v>
       </c>
-      <c r="P23" s="9">
-        <v>1801093</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="Q23" s="9">
+        <v>1793876</v>
+      </c>
+      <c r="R23" s="13">
+        <v>1812274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6">
+      <c r="C24" s="6">
         <v>1119712</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <v>1170660</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <v>1226067</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="8">
         <v>1362333</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <v>1652713</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="8">
         <v>1654658</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>1701322</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <v>1858981</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>1944678</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <v>2006732</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <v>2259425</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <v>2240788</v>
       </c>
-      <c r="N24" s="9">
+      <c r="O24" s="9">
         <v>2136462</v>
       </c>
-      <c r="O24" s="9">
+      <c r="P24" s="9">
         <v>2009281</v>
       </c>
-      <c r="P24" s="9">
-        <v>1898569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="Q24" s="9">
+        <v>1893062</v>
+      </c>
+      <c r="R24" s="12">
+        <v>1829872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6">
+      <c r="C25" s="6">
         <v>292698</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="6">
         <v>303533</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="6">
         <v>313690</v>
       </c>
-      <c r="E25" s="8">
+      <c r="F25" s="8">
         <v>337108</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>397252</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="8">
         <v>410607</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <v>428583</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <v>437583</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>449245</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <v>460747</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <v>515074</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <v>482129</v>
       </c>
-      <c r="N25" s="9">
+      <c r="O25" s="9">
         <v>439688</v>
       </c>
-      <c r="O25" s="9">
+      <c r="P25" s="9">
         <v>449927</v>
       </c>
-      <c r="P25" s="9">
-        <v>454516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="Q25" s="9">
+        <v>453213</v>
+      </c>
+      <c r="R25" s="13">
+        <v>467903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6">
+      <c r="C26" s="6">
         <v>1821548</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="6">
         <v>1946896</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="6">
         <v>2039657</v>
       </c>
-      <c r="E26" s="8">
+      <c r="F26" s="8">
         <v>2160752</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <v>2506334</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="8">
         <v>2695237</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <v>2875757</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>2906991</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>2905097</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <v>2900602</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <v>3146823</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>3016527</v>
       </c>
-      <c r="N26" s="9">
+      <c r="O26" s="9">
         <v>2987035</v>
       </c>
-      <c r="O26" s="9">
+      <c r="P26" s="9">
         <v>3205792</v>
       </c>
-      <c r="P26" s="9">
-        <v>3170324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="Q26" s="9">
+        <v>3178670</v>
+      </c>
+      <c r="R26" s="12">
+        <v>3043764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6">
+      <c r="C27" s="6">
         <v>2673524</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="6">
         <v>2754187</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <v>2527661</v>
       </c>
-      <c r="E27" s="8">
+      <c r="F27" s="8">
         <v>2610829</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="8">
         <v>3103127</v>
       </c>
-      <c r="G27" s="8">
+      <c r="H27" s="8">
         <v>3197796</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <v>3387745</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>3531195</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>3638024</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <v>3727675</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>4225129</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>4356788</v>
       </c>
-      <c r="N27" s="9">
+      <c r="O27" s="9">
         <v>4482027</v>
       </c>
-      <c r="O27" s="9">
+      <c r="P27" s="9">
         <v>4495842</v>
       </c>
-      <c r="P27" s="9">
-        <v>4659069</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="Q27" s="9">
+        <v>4620159</v>
+      </c>
+      <c r="R27" s="13">
+        <v>5107382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6">
+      <c r="C28" s="6">
         <v>2388925</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="6">
         <v>2421621</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="6">
         <v>2483151</v>
       </c>
-      <c r="E28" s="8">
+      <c r="F28" s="8">
         <v>2649293</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
         <v>3048109</v>
       </c>
-      <c r="G28" s="8">
+      <c r="H28" s="8">
         <v>2976034</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>2914834</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <v>2837407</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <v>2831565</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>2729164</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <v>2729901</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>2604663</v>
       </c>
-      <c r="N28" s="9">
+      <c r="O28" s="9">
         <v>2545672</v>
       </c>
-      <c r="O28" s="9">
+      <c r="P28" s="9">
         <v>2288844</v>
       </c>
-      <c r="P28" s="9">
-        <v>2163058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="Q28" s="9">
+        <v>2224806</v>
+      </c>
+      <c r="R28" s="12">
+        <v>2146046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="6">
+      <c r="C29" s="6">
         <v>1404117</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="6">
         <v>1447379</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="6">
         <v>1505291</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F29" s="8">
         <v>1630197</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="8">
         <v>1831822</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="8">
         <v>1784117</v>
       </c>
-      <c r="H29" s="6">
+      <c r="I29" s="6">
         <v>1875095</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <v>1931090</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>1934640</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L29" s="8">
         <v>1947780</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <v>2039064</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <v>1888129</v>
       </c>
-      <c r="N29" s="9">
+      <c r="O29" s="9">
         <v>1908241</v>
       </c>
-      <c r="O29" s="9">
+      <c r="P29" s="9">
         <v>1926614</v>
       </c>
-      <c r="P29" s="9">
-        <v>2008968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="Q29" s="9">
+        <v>1962088</v>
+      </c>
+      <c r="R29" s="13">
+        <v>2052794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="6">
+      <c r="C30" s="6">
         <v>647312</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="6">
         <v>650023</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="6">
         <v>663391</v>
       </c>
-      <c r="E30" s="8">
+      <c r="F30" s="8">
         <v>728886</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <v>871938</v>
       </c>
-      <c r="G30" s="8">
+      <c r="H30" s="8">
         <v>897114</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <v>940168</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <v>981936</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>1039711</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>1075879</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <v>1120534</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <v>1076302</v>
       </c>
-      <c r="N30" s="9">
+      <c r="O30" s="9">
         <v>1103229</v>
       </c>
-      <c r="O30" s="9">
+      <c r="P30" s="9">
         <v>1109858</v>
       </c>
-      <c r="P30" s="9">
-        <v>1100379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="Q30" s="9">
+        <v>1096685</v>
+      </c>
+      <c r="R30" s="12">
+        <v>1125018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="6">
+      <c r="C31" s="6">
         <v>2109159</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="6">
         <v>2177949</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="6">
         <v>2235026</v>
       </c>
-      <c r="E31" s="8">
+      <c r="F31" s="8">
         <v>2463271</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <v>2843117</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <v>2898072</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>3105999</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <v>3263968</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>3402755</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <v>3580010</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <v>3986798</v>
       </c>
-      <c r="M31" s="6">
+      <c r="N31" s="6">
         <v>3739023</v>
       </c>
-      <c r="N31" s="9">
+      <c r="O31" s="9">
         <v>3517178</v>
       </c>
-      <c r="O31" s="9">
+      <c r="P31" s="9">
         <v>3564427</v>
       </c>
-      <c r="P31" s="9">
-        <v>3561164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="Q31" s="9">
+        <v>3547998</v>
+      </c>
+      <c r="R31" s="13">
+        <v>3493157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6">
+      <c r="C32" s="6">
         <v>216235</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="6">
         <v>226969</v>
       </c>
-      <c r="D32" s="6">
+      <c r="E32" s="6">
         <v>235621</v>
       </c>
-      <c r="E32" s="8">
+      <c r="F32" s="8">
         <v>255791</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <v>300437</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="8">
         <v>307665</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>324611</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <v>335345</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>353305</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <v>374804</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <v>420965</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="6">
         <v>418227</v>
       </c>
-      <c r="N32" s="9">
+      <c r="O32" s="9">
         <v>416159</v>
       </c>
-      <c r="O32" s="9">
+      <c r="P32" s="9">
         <v>390840</v>
       </c>
-      <c r="P32" s="9">
-        <v>364803</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="Q32" s="9">
+        <v>363303</v>
+      </c>
+      <c r="R32" s="12">
+        <v>350959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6">
+      <c r="C33" s="6">
         <v>203865</v>
       </c>
-      <c r="C33" s="6">
+      <c r="D33" s="6">
         <v>214612</v>
       </c>
-      <c r="D33" s="6">
+      <c r="E33" s="6">
         <v>225403</v>
       </c>
-      <c r="E33" s="8">
+      <c r="F33" s="8">
         <v>276478</v>
       </c>
-      <c r="F33" s="8">
+      <c r="G33" s="8">
         <v>344121</v>
       </c>
-      <c r="G33" s="8">
+      <c r="H33" s="8">
         <v>357859</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <v>367256</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="6">
         <v>405344</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <v>450573</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>470305</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <v>538741</v>
       </c>
-      <c r="M33" s="6">
+      <c r="N33" s="6">
         <v>553309</v>
       </c>
-      <c r="N33" s="9">
+      <c r="O33" s="9">
         <v>564665</v>
       </c>
-      <c r="O33" s="9">
+      <c r="P33" s="9">
         <v>583997</v>
       </c>
-      <c r="P33" s="9">
-        <v>618576</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="Q33" s="9">
+        <v>617051</v>
+      </c>
+      <c r="R33" s="13">
+        <v>651777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6">
+      <c r="C34" s="6">
         <v>1007652</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="6">
         <v>1093861</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E34" s="6">
         <v>1186705</v>
       </c>
-      <c r="E34" s="8">
+      <c r="F34" s="8">
         <v>1321478</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="8">
         <v>1586583</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="8">
         <v>1701878</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I34" s="6">
         <v>1837551</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <v>2010380</v>
       </c>
-      <c r="J34" s="8">
+      <c r="K34" s="8">
         <v>2211874</v>
       </c>
-      <c r="K34" s="8">
+      <c r="L34" s="8">
         <v>2340378</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <v>2564141</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="6">
         <v>2542262</v>
       </c>
-      <c r="N34" s="9">
+      <c r="O34" s="9">
         <v>2516302</v>
       </c>
-      <c r="O34" s="9">
+      <c r="P34" s="9">
         <v>2536843</v>
       </c>
-      <c r="P34" s="9">
-        <v>2540825</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="Q34" s="9">
+        <v>2533200</v>
+      </c>
+      <c r="R34" s="12">
+        <v>2556422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="6">
+      <c r="C35" s="6">
         <v>258338</v>
       </c>
-      <c r="C35" s="6">
+      <c r="D35" s="6">
         <v>274012</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="6">
         <v>296004</v>
       </c>
-      <c r="E35" s="8">
+      <c r="F35" s="8">
         <v>334827</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <v>411422</v>
       </c>
-      <c r="G35" s="8">
+      <c r="H35" s="8">
         <v>434407</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="6">
         <v>450553</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J35" s="6">
         <v>462652</v>
       </c>
-      <c r="J35" s="8">
+      <c r="K35" s="8">
         <v>467772</v>
       </c>
-      <c r="K35" s="8">
+      <c r="L35" s="8">
         <v>480544</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <v>549236</v>
       </c>
-      <c r="M35" s="6">
+      <c r="N35" s="6">
         <v>528052</v>
       </c>
-      <c r="N35" s="9">
+      <c r="O35" s="9">
         <v>460617</v>
       </c>
-      <c r="O35" s="9">
+      <c r="P35" s="9">
         <v>446896</v>
       </c>
-      <c r="P35" s="9">
-        <v>435147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="Q35" s="9">
+        <v>434098</v>
+      </c>
+      <c r="R35" s="13">
+        <v>457438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6">
+      <c r="C36" s="6">
         <v>2194199</v>
       </c>
-      <c r="C36" s="6">
+      <c r="D36" s="6">
         <v>2445286</v>
       </c>
-      <c r="D36" s="6">
+      <c r="E36" s="6">
         <v>2731475</v>
       </c>
-      <c r="E36" s="8">
+      <c r="F36" s="8">
         <v>2922686</v>
       </c>
-      <c r="F36" s="8">
+      <c r="G36" s="8">
         <v>3392206</v>
       </c>
-      <c r="G36" s="8">
+      <c r="H36" s="8">
         <v>3654245</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>4024620</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <v>4307933</v>
       </c>
-      <c r="J36" s="8">
+      <c r="K36" s="8">
         <v>4579069</v>
       </c>
-      <c r="K36" s="8">
+      <c r="L36" s="8">
         <v>4793800</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <v>5332133</v>
       </c>
-      <c r="M36" s="6">
+      <c r="N36" s="6">
         <v>5166519</v>
       </c>
-      <c r="N36" s="9">
+      <c r="O36" s="9">
         <v>5062567</v>
       </c>
-      <c r="O36" s="9">
+      <c r="P36" s="9">
         <v>4901487</v>
       </c>
-      <c r="P36" s="9">
-        <v>4641656</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="Q36" s="9">
+        <v>4631896</v>
+      </c>
+      <c r="R36" s="12">
+        <v>4469944</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6">
+      <c r="C37" s="6">
         <v>663246</v>
       </c>
-      <c r="C37" s="6">
+      <c r="D37" s="6">
         <v>708627</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="6">
         <v>762967</v>
       </c>
-      <c r="E37" s="8">
+      <c r="F37" s="8">
         <v>846582</v>
       </c>
-      <c r="F37" s="8">
+      <c r="G37" s="8">
         <v>1022825</v>
       </c>
-      <c r="G37" s="8">
+      <c r="H37" s="8">
         <v>1109191</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>1217290</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>1288034</v>
       </c>
-      <c r="J37" s="8">
+      <c r="K37" s="8">
         <v>1352762</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>1349168</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <v>1433722</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="6">
         <v>1415984</v>
       </c>
-      <c r="N37" s="9">
+      <c r="O37" s="9">
         <v>1410173</v>
       </c>
-      <c r="O37" s="9">
+      <c r="P37" s="9">
         <v>1399087</v>
       </c>
-      <c r="P37" s="9">
-        <v>1272706</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="Q37" s="9">
+        <v>1268294</v>
+      </c>
+      <c r="R37" s="13">
+        <v>1211341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="6">
+      <c r="C38" s="6">
         <v>13653916</v>
       </c>
-      <c r="C38" s="6">
+      <c r="D38" s="6">
         <v>14075978</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <v>14203532</v>
       </c>
-      <c r="E38" s="8">
+      <c r="F38" s="8">
         <v>15217718</v>
       </c>
-      <c r="F38" s="8">
+      <c r="G38" s="8">
         <v>17669474</v>
       </c>
-      <c r="G38" s="8">
+      <c r="H38" s="8">
         <v>18284051</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <v>19186607</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <v>19881557</v>
       </c>
-      <c r="J38" s="8">
+      <c r="K38" s="8">
         <v>20962839</v>
       </c>
-      <c r="K38" s="8">
+      <c r="L38" s="8">
         <v>22060554</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <v>24421069</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="6">
         <v>24492855</v>
       </c>
-      <c r="N38" s="9">
+      <c r="O38" s="9">
         <v>24478163</v>
       </c>
-      <c r="O38" s="9">
+      <c r="P38" s="9">
         <v>24937221</v>
       </c>
-      <c r="P38" s="9">
-        <v>25295749</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="Q38" s="9">
+        <v>25257679</v>
+      </c>
+      <c r="R38" s="12">
+        <v>25145179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="6">
+      <c r="C39" s="6">
         <v>2391984</v>
       </c>
-      <c r="C39" s="6">
+      <c r="D39" s="6">
         <v>2515563</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="6">
         <v>2598280</v>
       </c>
-      <c r="E39" s="8">
+      <c r="F39" s="8">
         <v>2800542</v>
       </c>
-      <c r="F39" s="8">
+      <c r="G39" s="8">
         <v>3266518</v>
       </c>
-      <c r="G39" s="8">
+      <c r="H39" s="8">
         <v>3389596</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="6">
         <v>3572585</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <v>3783523</v>
       </c>
-      <c r="J39" s="8">
+      <c r="K39" s="8">
         <v>4031123</v>
       </c>
-      <c r="K39" s="8">
+      <c r="L39" s="8">
         <v>4206539</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <v>4376877</v>
       </c>
-      <c r="M39" s="6">
+      <c r="N39" s="6">
         <v>4105780</v>
       </c>
-      <c r="N39" s="9">
+      <c r="O39" s="9">
         <v>4120872</v>
       </c>
-      <c r="O39" s="9">
+      <c r="P39" s="9">
         <v>4123805</v>
       </c>
-      <c r="P39" s="9">
-        <v>4149813</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="Q39" s="9">
+        <v>4139172</v>
+      </c>
+      <c r="R39" s="13">
+        <v>4167753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="6">
+      <c r="C40" s="6">
         <v>96550</v>
       </c>
-      <c r="C40" s="6">
+      <c r="D40" s="6">
         <v>100891</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="6">
         <v>106017</v>
       </c>
-      <c r="E40" s="8">
+      <c r="F40" s="8">
         <v>116717</v>
       </c>
-      <c r="F40" s="8">
+      <c r="G40" s="8">
         <v>138516</v>
       </c>
-      <c r="G40" s="8">
+      <c r="H40" s="8">
         <v>140855</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <v>149794</v>
       </c>
-      <c r="I40" s="6">
+      <c r="J40" s="6">
         <v>160195</v>
       </c>
-      <c r="J40" s="8">
+      <c r="K40" s="8">
         <v>171589</v>
       </c>
-      <c r="K40" s="8">
+      <c r="L40" s="8">
         <v>186313</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <v>227952</v>
       </c>
-      <c r="M40" s="6">
+      <c r="N40" s="6">
         <v>249123</v>
       </c>
-      <c r="N40" s="9">
+      <c r="O40" s="9">
         <v>253630</v>
       </c>
-      <c r="O40" s="9">
+      <c r="P40" s="9">
         <v>263372</v>
       </c>
-      <c r="P40" s="9">
-        <v>280423</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="Q40" s="9">
+        <v>279430</v>
+      </c>
+      <c r="R40" s="12">
+        <v>315767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="6">
+      <c r="C41" s="6">
         <v>4565190</v>
       </c>
-      <c r="C41" s="6">
+      <c r="D41" s="6">
         <v>4760142</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="6">
         <v>5001708</v>
       </c>
-      <c r="E41" s="8">
+      <c r="F41" s="8">
         <v>5374357</v>
       </c>
-      <c r="F41" s="8">
+      <c r="G41" s="8">
         <v>6147386</v>
       </c>
-      <c r="G41" s="8">
+      <c r="H41" s="8">
         <v>6138678</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="6">
         <v>6248858</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <v>6278993</v>
       </c>
-      <c r="J41" s="8">
+      <c r="K41" s="8">
         <v>6506859</v>
       </c>
-      <c r="K41" s="8">
+      <c r="L41" s="8">
         <v>6761690</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <v>7513256</v>
       </c>
-      <c r="M41" s="6">
+      <c r="N41" s="6">
         <v>7422418</v>
       </c>
-      <c r="N41" s="9">
+      <c r="O41" s="9">
         <v>7402287</v>
       </c>
-      <c r="O41" s="9">
+      <c r="P41" s="9">
         <v>6895113</v>
       </c>
-      <c r="P41" s="9">
-        <v>6328824</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="Q41" s="9">
+        <v>6316513</v>
+      </c>
+      <c r="R41" s="13">
+        <v>6270474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="6">
+      <c r="C42" s="6">
         <v>739452</v>
       </c>
-      <c r="C42" s="6">
+      <c r="D42" s="6">
         <v>771263</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <v>775422</v>
       </c>
-      <c r="E42" s="8">
+      <c r="F42" s="8">
         <v>809933</v>
       </c>
-      <c r="F42" s="8">
+      <c r="G42" s="8">
         <v>947167</v>
       </c>
-      <c r="G42" s="8">
+      <c r="H42" s="8">
         <v>972839</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="6">
         <v>1049857</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <v>1133029</v>
       </c>
-      <c r="J42" s="8">
+      <c r="K42" s="8">
         <v>1228202</v>
       </c>
-      <c r="K42" s="8">
+      <c r="L42" s="8">
         <v>1315911</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <v>1483043</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <v>1467565</v>
       </c>
-      <c r="N42" s="9">
+      <c r="O42" s="9">
         <v>1435159</v>
       </c>
-      <c r="O42" s="9">
+      <c r="P42" s="9">
         <v>1446927</v>
       </c>
-      <c r="P42" s="9">
-        <v>1465798</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="Q42" s="9">
+        <v>1460452</v>
+      </c>
+      <c r="R42" s="12">
+        <v>1493534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="6">
+      <c r="C43" s="6">
         <v>1915890</v>
       </c>
-      <c r="C43" s="6">
+      <c r="D43" s="6">
         <v>1988864</v>
       </c>
-      <c r="D43" s="6">
+      <c r="E43" s="6">
         <v>2010860</v>
       </c>
-      <c r="E43" s="8">
+      <c r="F43" s="8">
         <v>2110162</v>
       </c>
-      <c r="F43" s="8">
+      <c r="G43" s="8">
         <v>2107552</v>
       </c>
-      <c r="G43" s="8">
+      <c r="H43" s="8">
         <v>1227129</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="6">
         <v>633959</v>
       </c>
-      <c r="I43" s="6">
+      <c r="J43" s="6">
         <v>705631</v>
       </c>
-      <c r="J43" s="8">
+      <c r="K43" s="8">
         <v>834802</v>
       </c>
-      <c r="K43" s="8">
+      <c r="L43" s="8">
         <v>1046756</v>
       </c>
-      <c r="L43" s="6">
+      <c r="M43" s="6">
         <v>1351818</v>
       </c>
-      <c r="M43" s="6">
+      <c r="N43" s="6">
         <v>1452980</v>
       </c>
-      <c r="N43" s="9">
+      <c r="O43" s="9">
         <v>1478275</v>
       </c>
-      <c r="O43" s="9">
+      <c r="P43" s="9">
         <v>1486662</v>
       </c>
-      <c r="P43" s="9">
-        <v>1452004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="Q43" s="9">
+        <v>1447353</v>
+      </c>
+      <c r="R43" s="13">
+        <v>1450046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="6">
+      <c r="C44" s="6">
         <v>3846465</v>
       </c>
-      <c r="C44" s="6">
+      <c r="D44" s="6">
         <v>3998875</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="6">
         <v>4386943</v>
       </c>
-      <c r="E44" s="8">
+      <c r="F44" s="8">
         <v>4852831</v>
       </c>
-      <c r="F44" s="8">
+      <c r="G44" s="8">
         <v>5671610</v>
       </c>
-      <c r="G44" s="8">
+      <c r="H44" s="8">
         <v>5711092</v>
       </c>
-      <c r="H44" s="6">
+      <c r="I44" s="6">
         <v>5787772</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <v>5957044</v>
       </c>
-      <c r="J44" s="8">
+      <c r="K44" s="8">
         <v>6256698</v>
       </c>
-      <c r="K44" s="8">
+      <c r="L44" s="8">
         <v>6798717</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="6">
         <v>7761057</v>
       </c>
-      <c r="M44" s="6">
+      <c r="N44" s="6">
         <v>7732331</v>
       </c>
-      <c r="N44" s="9">
+      <c r="O44" s="9">
         <v>7598780</v>
       </c>
-      <c r="O44" s="9">
+      <c r="P44" s="9">
         <v>7610309</v>
       </c>
-      <c r="P44" s="9">
-        <v>7273672</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="Q44" s="9">
+        <v>7250768</v>
+      </c>
+      <c r="R44" s="12">
+        <v>6937740</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="6">
+      <c r="C45" s="6">
         <v>244035</v>
       </c>
-      <c r="C45" s="6">
+      <c r="D45" s="6">
         <v>253919</v>
       </c>
-      <c r="D45" s="6">
+      <c r="E45" s="6">
         <v>259245</v>
       </c>
-      <c r="E45" s="8">
+      <c r="F45" s="8">
         <v>280986</v>
       </c>
-      <c r="F45" s="8">
+      <c r="G45" s="8">
         <v>333929</v>
       </c>
-      <c r="G45" s="8">
+      <c r="H45" s="8">
         <v>345920</v>
       </c>
-      <c r="H45" s="6">
+      <c r="I45" s="6">
         <v>381310</v>
       </c>
-      <c r="I45" s="6">
+      <c r="J45" s="6">
         <v>401144</v>
       </c>
-      <c r="J45" s="8">
+      <c r="K45" s="8">
         <v>406085</v>
       </c>
-      <c r="K45" s="8">
+      <c r="L45" s="8">
         <v>421516</v>
       </c>
-      <c r="L45" s="6">
+      <c r="M45" s="6">
         <v>467575</v>
       </c>
-      <c r="M45" s="6">
+      <c r="N45" s="6">
         <v>572083</v>
       </c>
-      <c r="N45" s="9">
+      <c r="O45" s="9">
         <v>557043</v>
       </c>
-      <c r="O45" s="9">
+      <c r="P45" s="9">
         <v>471735</v>
       </c>
-      <c r="P45" s="9">
-        <v>468990</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="Q45" s="9">
+        <v>467535</v>
+      </c>
+      <c r="R45" s="13">
+        <v>461134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="6">
+      <c r="C46" s="6">
         <v>953114</v>
       </c>
-      <c r="C46" s="6">
+      <c r="D46" s="6">
         <v>972510</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="6">
         <v>958906</v>
       </c>
-      <c r="E46" s="8">
+      <c r="F46" s="8">
         <v>982877</v>
       </c>
-      <c r="F46" s="8">
+      <c r="G46" s="8">
         <v>1088309</v>
       </c>
-      <c r="G46" s="8">
+      <c r="H46" s="8">
         <v>1156136</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <v>1272874</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <v>1320332</v>
       </c>
-      <c r="J46" s="8">
+      <c r="K46" s="8">
         <v>1411638</v>
       </c>
-      <c r="K46" s="8">
+      <c r="L46" s="8">
         <v>1471470</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M46" s="6">
         <v>1634322</v>
       </c>
-      <c r="M46" s="6">
+      <c r="N46" s="6">
         <v>1659242</v>
       </c>
-      <c r="N46" s="9">
+      <c r="O46" s="9">
         <v>1541657</v>
       </c>
-      <c r="O46" s="9">
+      <c r="P46" s="9">
         <v>1367591</v>
       </c>
-      <c r="P46" s="9">
-        <v>1300077</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="Q46" s="9">
+        <v>1300260</v>
+      </c>
+      <c r="R46" s="12">
+        <v>1278461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="6">
+      <c r="C47" s="6">
         <v>238832</v>
       </c>
-      <c r="C47" s="6">
+      <c r="D47" s="6">
         <v>257188</v>
       </c>
-      <c r="D47" s="6">
+      <c r="E47" s="6">
         <v>276407</v>
       </c>
-      <c r="E47" s="8">
+      <c r="F47" s="8">
         <v>303541</v>
       </c>
-      <c r="F47" s="8">
+      <c r="G47" s="8">
         <v>357194</v>
       </c>
-      <c r="G47" s="8">
+      <c r="H47" s="8">
         <v>367746</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <v>388652</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>399633</v>
       </c>
-      <c r="J47" s="8">
+      <c r="K47" s="8">
         <v>412668</v>
       </c>
-      <c r="K47" s="8">
+      <c r="L47" s="8">
         <v>418641</v>
       </c>
-      <c r="L47" s="6">
+      <c r="M47" s="6">
         <v>479323</v>
       </c>
-      <c r="M47" s="6">
+      <c r="N47" s="6">
         <v>490073</v>
       </c>
-      <c r="N47" s="9">
+      <c r="O47" s="9">
         <v>450580</v>
       </c>
-      <c r="O47" s="9">
+      <c r="P47" s="9">
         <v>420161</v>
       </c>
-      <c r="P47" s="9">
-        <v>463064</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="Q47" s="9">
+        <v>460612</v>
+      </c>
+      <c r="R47" s="13">
+        <v>498011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="6">
+      <c r="C48" s="6">
         <v>1364537</v>
       </c>
-      <c r="C48" s="6">
+      <c r="D48" s="6">
         <v>1408267</v>
       </c>
-      <c r="D48" s="6">
+      <c r="E48" s="6">
         <v>1429196</v>
       </c>
-      <c r="E48" s="8">
+      <c r="F48" s="8">
         <v>1574049</v>
       </c>
-      <c r="F48" s="8">
+      <c r="G48" s="8">
         <v>1851299</v>
       </c>
-      <c r="G48" s="8">
+      <c r="H48" s="8">
         <v>1912122</v>
       </c>
-      <c r="H48" s="6">
+      <c r="I48" s="6">
         <v>2001076</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <v>2055840</v>
       </c>
-      <c r="J48" s="8">
+      <c r="K48" s="8">
         <v>2115492</v>
       </c>
-      <c r="K48" s="8">
+      <c r="L48" s="8">
         <v>2202473</v>
       </c>
-      <c r="L48" s="6">
+      <c r="M48" s="6">
         <v>2425426</v>
       </c>
-      <c r="M48" s="6">
+      <c r="N48" s="6">
         <v>2429930</v>
       </c>
-      <c r="N48" s="9">
+      <c r="O48" s="9">
         <v>2430551</v>
       </c>
-      <c r="O48" s="9">
+      <c r="P48" s="9">
         <v>2436203</v>
       </c>
-      <c r="P48" s="9">
-        <v>2451074</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="Q48" s="9">
+        <v>2462511</v>
+      </c>
+      <c r="R48" s="12">
+        <v>2654801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="6">
+      <c r="C49" s="6">
         <v>5220346</v>
       </c>
-      <c r="C49" s="6">
+      <c r="D49" s="6">
         <v>5794499</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="6">
         <v>6254144</v>
       </c>
-      <c r="E49" s="8">
+      <c r="F49" s="8">
         <v>7071218</v>
       </c>
-      <c r="F49" s="8">
+      <c r="G49" s="8">
         <v>7818124</v>
       </c>
-      <c r="G49" s="8">
+      <c r="H49" s="8">
         <v>7454942</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>7233592</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>7275128</v>
       </c>
-      <c r="J49" s="8">
+      <c r="K49" s="8">
         <v>7748200</v>
       </c>
-      <c r="K49" s="8">
+      <c r="L49" s="8">
         <v>8450851</v>
       </c>
-      <c r="L49" s="6">
+      <c r="M49" s="6">
         <v>9966372</v>
       </c>
-      <c r="M49" s="6">
+      <c r="N49" s="6">
         <v>10443356</v>
       </c>
-      <c r="N49" s="9">
+      <c r="O49" s="9">
         <v>10715546</v>
       </c>
-      <c r="O49" s="9">
+      <c r="P49" s="9">
         <v>10903534</v>
       </c>
-      <c r="P49" s="9">
-        <v>11308840</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="Q49" s="9">
+        <v>11254843</v>
+      </c>
+      <c r="R49" s="13">
+        <v>12195386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="6">
+      <c r="C50" s="6">
         <v>805594</v>
       </c>
-      <c r="C50" s="6">
+      <c r="D50" s="6">
         <v>846411</v>
       </c>
-      <c r="D50" s="6">
+      <c r="E50" s="6">
         <v>858178</v>
       </c>
-      <c r="E50" s="8">
+      <c r="F50" s="8">
         <v>920810</v>
       </c>
-      <c r="F50" s="8">
+      <c r="G50" s="8">
         <v>1063322</v>
       </c>
-      <c r="G50" s="8">
+      <c r="H50" s="8">
         <v>1079808</v>
       </c>
-      <c r="H50" s="6">
+      <c r="I50" s="6">
         <v>1140514</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>1211410</v>
       </c>
-      <c r="J50" s="8">
+      <c r="K50" s="8">
         <v>1296678</v>
       </c>
-      <c r="K50" s="8">
+      <c r="L50" s="8">
         <v>1381090</v>
       </c>
-      <c r="L50" s="6">
+      <c r="M50" s="6">
         <v>1532054</v>
       </c>
-      <c r="M50" s="6">
+      <c r="N50" s="6">
         <v>1509650</v>
       </c>
-      <c r="N50" s="9">
+      <c r="O50" s="9">
         <v>1457197</v>
       </c>
-      <c r="O50" s="9">
+      <c r="P50" s="9">
         <v>1485950</v>
       </c>
-      <c r="P50" s="9">
-        <v>1454751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="Q50" s="9">
+        <v>1449621</v>
+      </c>
+      <c r="R50" s="12">
+        <v>1378711</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="6">
+      <c r="C51" s="6">
         <v>130167</v>
       </c>
-      <c r="C51" s="6">
+      <c r="D51" s="6">
         <v>137349</v>
       </c>
-      <c r="D51" s="6">
+      <c r="E51" s="6">
         <v>143807</v>
       </c>
-      <c r="E51" s="8">
+      <c r="F51" s="8">
         <v>161824</v>
       </c>
-      <c r="F51" s="8">
+      <c r="G51" s="8">
         <v>194829</v>
       </c>
-      <c r="G51" s="8">
+      <c r="H51" s="8">
         <v>202872</v>
       </c>
-      <c r="H51" s="6">
+      <c r="I51" s="6">
         <v>212393</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>225779</v>
       </c>
-      <c r="J51" s="8">
+      <c r="K51" s="8">
         <v>224860</v>
       </c>
-      <c r="K51" s="8">
+      <c r="L51" s="8">
         <v>222205</v>
       </c>
-      <c r="L51" s="6">
+      <c r="M51" s="6">
         <v>234004</v>
       </c>
-      <c r="M51" s="6">
+      <c r="N51" s="6">
         <v>213271</v>
       </c>
-      <c r="N51" s="9">
+      <c r="O51" s="9">
         <v>215060</v>
       </c>
-      <c r="O51" s="9">
+      <c r="P51" s="9">
         <v>221134</v>
       </c>
-      <c r="P51" s="9">
-        <v>229604</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="Q51" s="9">
+        <v>228889</v>
+      </c>
+      <c r="R51" s="13">
+        <v>239242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="6">
+      <c r="C52" s="6">
         <v>2306727</v>
       </c>
-      <c r="C52" s="6">
+      <c r="D52" s="6">
         <v>2430327</v>
       </c>
-      <c r="D52" s="6">
+      <c r="E52" s="6">
         <v>2515791</v>
       </c>
-      <c r="E52" s="8">
+      <c r="F52" s="8">
         <v>2677922</v>
       </c>
-      <c r="F52" s="8">
+      <c r="G52" s="8">
         <v>3169362</v>
       </c>
-      <c r="G52" s="8">
+      <c r="H52" s="8">
         <v>3118797</v>
       </c>
-      <c r="H52" s="6">
+      <c r="I52" s="6">
         <v>3123178</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <v>3339763</v>
       </c>
-      <c r="J52" s="8">
+      <c r="K52" s="8">
         <v>3645562</v>
       </c>
-      <c r="K52" s="8">
+      <c r="L52" s="8">
         <v>3833004</v>
       </c>
-      <c r="L52" s="6">
+      <c r="M52" s="6">
         <v>4162123</v>
       </c>
-      <c r="M52" s="6">
+      <c r="N52" s="6">
         <v>4149774</v>
       </c>
-      <c r="N52" s="9">
+      <c r="O52" s="9">
         <v>3781324</v>
       </c>
-      <c r="O52" s="9">
+      <c r="P52" s="9">
         <v>3850032</v>
       </c>
-      <c r="P52" s="9">
-        <v>3967648</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="Q52" s="9">
+        <v>3980045</v>
+      </c>
+      <c r="R52" s="12">
+        <v>3990497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="6">
+      <c r="C53" s="6">
         <v>1810788</v>
       </c>
-      <c r="C53" s="6">
+      <c r="D53" s="6">
         <v>1750563</v>
       </c>
-      <c r="D53" s="6">
+      <c r="E53" s="6">
         <v>1735855</v>
       </c>
-      <c r="E53" s="8">
+      <c r="F53" s="8">
         <v>1854455</v>
       </c>
-      <c r="F53" s="8">
+      <c r="G53" s="8">
         <v>2153062</v>
       </c>
-      <c r="G53" s="8">
+      <c r="H53" s="8">
         <v>2262523</v>
       </c>
-      <c r="H53" s="6">
+      <c r="I53" s="6">
         <v>2474691</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <v>2705505</v>
       </c>
-      <c r="J53" s="8">
+      <c r="K53" s="8">
         <v>2886429</v>
       </c>
-      <c r="K53" s="8">
+      <c r="L53" s="8">
         <v>2904402</v>
       </c>
-      <c r="L53" s="6">
+      <c r="M53" s="6">
         <v>3110489</v>
       </c>
-      <c r="M53" s="6">
+      <c r="N53" s="6">
         <v>3137625</v>
       </c>
-      <c r="N53" s="9">
+      <c r="O53" s="9">
         <v>3327336</v>
       </c>
-      <c r="O53" s="9">
+      <c r="P53" s="9">
         <v>3501148</v>
       </c>
-      <c r="P53" s="9">
-        <v>3334364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="Q53" s="9">
+        <v>3391653</v>
+      </c>
+      <c r="R53" s="13">
+        <v>3282395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="6">
+      <c r="C54" s="6">
         <v>230652</v>
       </c>
-      <c r="C54" s="6">
+      <c r="D54" s="6">
         <v>234178</v>
       </c>
-      <c r="D54" s="6">
+      <c r="E54" s="6">
         <v>237972</v>
       </c>
-      <c r="E54" s="8">
+      <c r="F54" s="8">
         <v>250651</v>
       </c>
-      <c r="F54" s="8">
+      <c r="G54" s="8">
         <v>284840</v>
       </c>
-      <c r="G54" s="8">
+      <c r="H54" s="8">
         <v>283819</v>
       </c>
-      <c r="H54" s="6">
+      <c r="I54" s="6">
         <v>290243</v>
       </c>
-      <c r="I54" s="6">
+      <c r="J54" s="6">
         <v>304457</v>
       </c>
-      <c r="J54" s="8">
+      <c r="K54" s="8">
         <v>386128</v>
       </c>
-      <c r="K54" s="8">
+      <c r="L54" s="8">
         <v>449696</v>
       </c>
-      <c r="L54" s="6">
+      <c r="M54" s="6">
         <v>484914</v>
       </c>
-      <c r="M54" s="6">
+      <c r="N54" s="6">
         <v>509467</v>
       </c>
-      <c r="N54" s="9">
+      <c r="O54" s="9">
         <v>538332</v>
       </c>
-      <c r="O54" s="9">
+      <c r="P54" s="9">
         <v>540743</v>
       </c>
-      <c r="P54" s="9">
-        <v>543991</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="Q54" s="9">
+        <v>543016</v>
+      </c>
+      <c r="R54" s="12">
+        <v>532353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="6">
+      <c r="C55" s="6">
         <v>1317359</v>
       </c>
-      <c r="C55" s="6">
+      <c r="D55" s="6">
         <v>1360503</v>
       </c>
-      <c r="D55" s="6">
+      <c r="E55" s="6">
         <v>1436893</v>
       </c>
-      <c r="E55" s="8">
+      <c r="F55" s="8">
         <v>1596475</v>
       </c>
-      <c r="F55" s="8">
+      <c r="G55" s="8">
         <v>1897672</v>
       </c>
-      <c r="G55" s="8">
+      <c r="H55" s="8">
         <v>1935064</v>
       </c>
-      <c r="H55" s="6">
+      <c r="I55" s="6">
         <v>1992829</v>
       </c>
-      <c r="I55" s="6">
+      <c r="J55" s="6">
         <v>2047910</v>
       </c>
-      <c r="J55" s="8">
+      <c r="K55" s="8">
         <v>2134797</v>
       </c>
-      <c r="K55" s="8">
+      <c r="L55" s="8">
         <v>2248643</v>
       </c>
-      <c r="L55" s="6">
+      <c r="M55" s="6">
         <v>2556151</v>
       </c>
-      <c r="M55" s="6">
+      <c r="N55" s="6">
         <v>2641604</v>
       </c>
-      <c r="N55" s="9">
+      <c r="O55" s="9">
         <v>2571617</v>
       </c>
-      <c r="O55" s="9">
+      <c r="P55" s="9">
         <v>2391523</v>
       </c>
-      <c r="P55" s="9">
-        <v>2373496</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="Q55" s="9">
+        <v>2353126</v>
+      </c>
+      <c r="R55" s="13">
+        <v>2369280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="6">
+      <c r="C56" s="6">
         <v>126270</v>
       </c>
-      <c r="C56" s="6">
+      <c r="D56" s="6">
         <v>131251</v>
       </c>
-      <c r="D56" s="6">
+      <c r="E56" s="6">
         <v>144561</v>
       </c>
-      <c r="E56" s="8">
+      <c r="F56" s="8">
         <v>158608</v>
       </c>
-      <c r="F56" s="8">
+      <c r="G56" s="8">
         <v>188594</v>
       </c>
-      <c r="G56" s="8">
+      <c r="H56" s="8">
         <v>196163</v>
       </c>
-      <c r="H56" s="6">
+      <c r="I56" s="6">
         <v>213072</v>
       </c>
-      <c r="I56" s="6">
+      <c r="J56" s="6">
         <v>235640</v>
       </c>
-      <c r="J56" s="8">
+      <c r="K56" s="8">
         <v>261582</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>293338</v>
       </c>
-      <c r="L56" s="6">
+      <c r="M56" s="6">
         <v>378556</v>
       </c>
-      <c r="M56" s="6">
+      <c r="N56" s="6">
         <v>406069</v>
       </c>
-      <c r="N56" s="9">
+      <c r="O56" s="9">
         <v>422532</v>
       </c>
-      <c r="O56" s="9">
+      <c r="P56" s="9">
         <v>424183</v>
       </c>
-      <c r="P56" s="9">
-        <v>437985</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="Q56" s="9">
+        <v>437451</v>
+      </c>
+      <c r="R56" s="15">
+        <v>449866</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="A58:N58"/>
+  <mergeCells count="8">
+    <mergeCell ref="A59:R59"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A57:N57"/>
-    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="A57:R57"/>
+    <mergeCell ref="A58:R58"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <customProperties>
     <customPr name="SourceTableID" r:id="rId2"/>

--- a/data-raw/StatesBEAFRB/PensionEstimatesByState.xlsx
+++ b/data-raw/StatesBEAFRB/PensionEstimatesByState.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="115">
   <si>
     <t>Source:  U.S. Bureau of Economic Analysis</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Last updated: September 26, 2017--new estimates for 2015; revised estimates for 2014.</t>
+  </si>
+  <si>
+    <t>Last updated: January 26, 2018--revised estimates for 2014 and 2015.</t>
   </si>
 </sst>
 </file>
@@ -737,6 +740,34 @@
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1317,20 +1348,6 @@
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1340,20 +1357,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1957,32 +1960,32 @@
     <tableColumn id="13" name="Column13" headerRowDxfId="43" dataDxfId="42"/>
     <tableColumn id="14" name="Column14" headerRowDxfId="41" dataDxfId="40"/>
     <tableColumn id="16" name="Column16" headerRowDxfId="39" dataDxfId="38"/>
-    <tableColumn id="15" name="Column15" headerRowDxfId="37" dataDxfId="36"/>
-    <tableColumn id="17" name="Column17" headerRowDxfId="35" dataDxfId="34"/>
+    <tableColumn id="15" name="Column15" headerRowDxfId="37" dataDxfId="1"/>
+    <tableColumn id="17" name="Column17" headerRowDxfId="36" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table7" displayName="Table7" ref="B6:Q56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table7" displayName="Table7" ref="B6:Q56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35" tableBorderDxfId="34">
   <tableColumns count="16">
-    <tableColumn id="1" name="Column1" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="Normal_spi1204" dataCellStyle="Normal_spi1204"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="29" dataDxfId="28"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="25" dataDxfId="24"/>
-    <tableColumn id="5" name="Column5" headerRowDxfId="23" dataDxfId="22"/>
-    <tableColumn id="6" name="Column6" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="7" name="Column7" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="8" name="Column8" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="9" name="Column9" headerRowDxfId="15" dataDxfId="14"/>
-    <tableColumn id="10" name="Column10" headerRowDxfId="13" dataDxfId="12"/>
-    <tableColumn id="11" name="Column11" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="12" name="Column12" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="13" name="Column13" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="14" name="Column14" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="16" name="Column16" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="17" name="Column17" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="33" dataDxfId="32" headerRowCellStyle="Normal_spi1204" dataCellStyle="Normal_spi1204"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="31" dataDxfId="30"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="29" dataDxfId="28"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="5" name="Column5" headerRowDxfId="25" dataDxfId="24"/>
+    <tableColumn id="6" name="Column6" headerRowDxfId="23" dataDxfId="22"/>
+    <tableColumn id="7" name="Column7" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="8" name="Column8" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="9" name="Column9" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="10" name="Column10" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="11" name="Column11" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="12" name="Column12" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="13" name="Column13" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="14" name="Column14" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="16" name="Column16" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="17" name="Column17" headerRowDxfId="3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2281,7 +2284,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2462,10 +2465,10 @@
         <v>4986903000</v>
       </c>
       <c r="Q5" s="9">
-        <v>5267288000</v>
+        <v>5236681000</v>
       </c>
       <c r="R5" s="9">
-        <v>5520855000</v>
+        <v>5488753000</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2518,10 +2521,10 @@
         <v>51366180</v>
       </c>
       <c r="Q6" s="7">
-        <v>53920841</v>
+        <v>53607519</v>
       </c>
       <c r="R6" s="7">
-        <v>56071216</v>
+        <v>55745179</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2574,10 +2577,10 @@
         <v>23279256</v>
       </c>
       <c r="Q7" s="9">
-        <v>25325346</v>
+        <v>25178187</v>
       </c>
       <c r="R7" s="9">
-        <v>26742559</v>
+        <v>26587060</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -2630,10 +2633,10 @@
         <v>70125296</v>
       </c>
       <c r="Q8" s="9">
-        <v>74856732</v>
+        <v>74421757</v>
       </c>
       <c r="R8" s="9">
-        <v>78267670</v>
+        <v>77812569</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -2686,10 +2689,10 @@
         <v>30273348</v>
       </c>
       <c r="Q9" s="9">
-        <v>31981984</v>
+        <v>31796144</v>
       </c>
       <c r="R9" s="9">
-        <v>33573961</v>
+        <v>33378739</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2742,10 +2745,10 @@
         <v>955896156</v>
       </c>
       <c r="Q10" s="9">
-        <v>1014809436</v>
+        <v>1008912611</v>
       </c>
       <c r="R10" s="9">
-        <v>1062481735</v>
+        <v>1056303744</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2798,10 +2801,10 @@
         <v>81786618</v>
       </c>
       <c r="Q11" s="9">
-        <v>85488334</v>
+        <v>84991581</v>
       </c>
       <c r="R11" s="9">
-        <v>88748268</v>
+        <v>88232226</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2854,10 +2857,10 @@
         <v>78657827</v>
       </c>
       <c r="Q12" s="9">
-        <v>82319326</v>
+        <v>81840987</v>
       </c>
       <c r="R12" s="9">
-        <v>87239785</v>
+        <v>86732513</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2910,10 +2913,10 @@
         <v>10554688</v>
       </c>
       <c r="Q13" s="9">
-        <v>11062499</v>
+        <v>10998218</v>
       </c>
       <c r="R13" s="9">
-        <v>11976867</v>
+        <v>11907225</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2966,10 +2969,10 @@
         <v>6597315</v>
       </c>
       <c r="Q14" s="9">
-        <v>7146953</v>
+        <v>7105423</v>
       </c>
       <c r="R14" s="9">
-        <v>7784270</v>
+        <v>7739007</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -3022,10 +3025,10 @@
         <v>208313114</v>
       </c>
       <c r="Q15" s="9">
-        <v>217859870</v>
+        <v>216593937</v>
       </c>
       <c r="R15" s="9">
-        <v>226735135</v>
+        <v>225416743</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -3078,10 +3081,10 @@
         <v>132036755</v>
       </c>
       <c r="Q16" s="9">
-        <v>138337590</v>
+        <v>137533742</v>
       </c>
       <c r="R16" s="9">
-        <v>144653520</v>
+        <v>143812406</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -3134,10 +3137,10 @@
         <v>23053314</v>
       </c>
       <c r="Q17" s="9">
-        <v>24262225</v>
+        <v>24121242</v>
       </c>
       <c r="R17" s="9">
-        <v>25507596</v>
+        <v>25359278</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -3190,10 +3193,10 @@
         <v>15201405</v>
       </c>
       <c r="Q18" s="9">
-        <v>16212918</v>
+        <v>16118708</v>
       </c>
       <c r="R18" s="9">
-        <v>17084788</v>
+        <v>16985446</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3246,10 +3249,10 @@
         <v>325768123</v>
       </c>
       <c r="Q19" s="9">
-        <v>345608813</v>
+        <v>343600558</v>
       </c>
       <c r="R19" s="9">
-        <v>364827932</v>
+        <v>362706575</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -3302,10 +3305,10 @@
         <v>38375603</v>
       </c>
       <c r="Q20" s="9">
-        <v>40748570</v>
+        <v>40511789</v>
       </c>
       <c r="R20" s="9">
-        <v>43867619</v>
+        <v>43612543</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -3358,10 +3361,10 @@
         <v>33320291</v>
       </c>
       <c r="Q21" s="9">
-        <v>35297363</v>
+        <v>35092258</v>
       </c>
       <c r="R21" s="9">
-        <v>37078008</v>
+        <v>36862411</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -3414,10 +3417,10 @@
         <v>26052463</v>
       </c>
       <c r="Q22" s="9">
-        <v>27261333</v>
+        <v>27102924</v>
       </c>
       <c r="R22" s="9">
-        <v>28341680</v>
+        <v>28176882</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -3470,10 +3473,10 @@
         <v>62241185</v>
       </c>
       <c r="Q23" s="9">
-        <v>65604558</v>
+        <v>65223345</v>
       </c>
       <c r="R23" s="9">
-        <v>68601793</v>
+        <v>68202895</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -3526,10 +3529,10 @@
         <v>73590977</v>
       </c>
       <c r="Q24" s="9">
-        <v>77083608</v>
+        <v>76635693</v>
       </c>
       <c r="R24" s="9">
-        <v>79764382</v>
+        <v>79300577</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3582,10 +3585,10 @@
         <v>15354639</v>
       </c>
       <c r="Q25" s="9">
-        <v>16004762</v>
+        <v>15911762</v>
       </c>
       <c r="R25" s="9">
-        <v>16445350</v>
+        <v>16349726</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -3638,10 +3641,10 @@
         <v>88363854</v>
       </c>
       <c r="Q26" s="9">
-        <v>93319105</v>
+        <v>92776849</v>
       </c>
       <c r="R26" s="9">
-        <v>98644287</v>
+        <v>98070702</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -3694,10 +3697,10 @@
         <v>135150166</v>
       </c>
       <c r="Q27" s="9">
-        <v>146109250</v>
+        <v>145260243</v>
       </c>
       <c r="R27" s="9">
-        <v>155647975</v>
+        <v>154742932</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -3750,10 +3753,10 @@
         <v>126174820</v>
       </c>
       <c r="Q28" s="9">
-        <v>130035570</v>
+        <v>129279963</v>
       </c>
       <c r="R28" s="9">
-        <v>131704181</v>
+        <v>130938364</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -3806,10 +3809,10 @@
         <v>78137620</v>
       </c>
       <c r="Q29" s="9">
-        <v>83670556</v>
+        <v>83184366</v>
       </c>
       <c r="R29" s="9">
-        <v>88699359</v>
+        <v>88183601</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -3862,10 +3865,10 @@
         <v>41314757</v>
       </c>
       <c r="Q30" s="9">
-        <v>44111997</v>
+        <v>43855673</v>
       </c>
       <c r="R30" s="9">
-        <v>46971389</v>
+        <v>46698266</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -3918,10 +3921,10 @@
         <v>96365014</v>
       </c>
       <c r="Q31" s="9">
-        <v>102107766</v>
+        <v>101514442</v>
       </c>
       <c r="R31" s="9">
-        <v>106475476</v>
+        <v>105856355</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -3974,10 +3977,10 @@
         <v>13235710</v>
       </c>
       <c r="Q32" s="9">
-        <v>14267650</v>
+        <v>14184744</v>
       </c>
       <c r="R32" s="9">
-        <v>14884995</v>
+        <v>14798444</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4030,10 +4033,10 @@
         <v>18470570</v>
       </c>
       <c r="Q33" s="9">
-        <v>19446823</v>
+        <v>19333822</v>
       </c>
       <c r="R33" s="9">
-        <v>20349288</v>
+        <v>20230963</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -4086,10 +4089,10 @@
         <v>47229012</v>
       </c>
       <c r="Q34" s="9">
-        <v>50104421</v>
+        <v>49813276</v>
       </c>
       <c r="R34" s="9">
-        <v>52990320</v>
+        <v>52682198</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -4142,10 +4145,10 @@
         <v>11897486</v>
       </c>
       <c r="Q35" s="9">
-        <v>12498603</v>
+        <v>12425976</v>
       </c>
       <c r="R35" s="9">
-        <v>13296852</v>
+        <v>13219536</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -4198,10 +4201,10 @@
         <v>167202664</v>
       </c>
       <c r="Q36" s="9">
-        <v>175361895</v>
+        <v>174342907</v>
       </c>
       <c r="R36" s="9">
-        <v>181592882</v>
+        <v>180536978</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -4254,10 +4257,10 @@
         <v>38503846</v>
       </c>
       <c r="Q37" s="9">
-        <v>40862096</v>
+        <v>40624655</v>
       </c>
       <c r="R37" s="9">
-        <v>43370209</v>
+        <v>43118025</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -4310,10 +4313,10 @@
         <v>497782462</v>
       </c>
       <c r="Q38" s="9">
-        <v>523867224</v>
+        <v>520823150</v>
       </c>
       <c r="R38" s="9">
-        <v>548616937</v>
+        <v>545426907</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -4366,10 +4369,10 @@
         <v>96235908</v>
       </c>
       <c r="Q39" s="9">
-        <v>100713335</v>
+        <v>100128113</v>
       </c>
       <c r="R39" s="9">
-        <v>106155308</v>
+        <v>105538049</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -4422,10 +4425,10 @@
         <v>6561766</v>
       </c>
       <c r="Q40" s="9">
-        <v>7071782</v>
+        <v>7030690</v>
       </c>
       <c r="R40" s="9">
-        <v>7667090</v>
+        <v>7622508</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -4478,10 +4481,10 @@
         <v>243953777</v>
       </c>
       <c r="Q41" s="9">
-        <v>254291639</v>
+        <v>252814009</v>
       </c>
       <c r="R41" s="9">
-        <v>263927487</v>
+        <v>262392833</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -4534,10 +4537,10 @@
         <v>39401583</v>
       </c>
       <c r="Q42" s="9">
-        <v>41407231</v>
+        <v>41166623</v>
       </c>
       <c r="R42" s="9">
-        <v>43319250</v>
+        <v>43067363</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4590,10 +4593,10 @@
         <v>73070126</v>
       </c>
       <c r="Q43" s="9">
-        <v>80278506</v>
+        <v>79812026</v>
       </c>
       <c r="R43" s="9">
-        <v>89066496</v>
+        <v>88548603</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -4646,10 +4649,10 @@
         <v>186825237</v>
       </c>
       <c r="Q44" s="9">
-        <v>193897368</v>
+        <v>192770675</v>
       </c>
       <c r="R44" s="9">
-        <v>201584506</v>
+        <v>200412357</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -4702,10 +4705,10 @@
         <v>16428740</v>
       </c>
       <c r="Q45" s="9">
-        <v>16956502</v>
+        <v>16857972</v>
       </c>
       <c r="R45" s="9">
-        <v>17706833</v>
+        <v>17603873</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4758,10 +4761,10 @@
         <v>51671662</v>
       </c>
       <c r="Q46" s="9">
-        <v>53975765</v>
+        <v>53662125</v>
       </c>
       <c r="R46" s="9">
-        <v>55833267</v>
+        <v>55508614</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -4814,10 +4817,10 @@
         <v>14510596</v>
       </c>
       <c r="Q47" s="9">
-        <v>15906963</v>
+        <v>15814532</v>
       </c>
       <c r="R47" s="9">
-        <v>16812714</v>
+        <v>16714953</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -4870,10 +4873,10 @@
         <v>52297384</v>
       </c>
       <c r="Q48" s="9">
-        <v>54856543</v>
+        <v>54537785</v>
       </c>
       <c r="R48" s="9">
-        <v>56985183</v>
+        <v>56653832</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -4926,10 +4929,10 @@
         <v>252705615</v>
       </c>
       <c r="Q49" s="9">
-        <v>270725679</v>
+        <v>269152554</v>
       </c>
       <c r="R49" s="9">
-        <v>289696429</v>
+        <v>288011937</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -4982,10 +4985,10 @@
         <v>29157155</v>
       </c>
       <c r="Q50" s="9">
-        <v>30518784</v>
+        <v>30341447</v>
       </c>
       <c r="R50" s="9">
-        <v>31843453</v>
+        <v>31658293</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5038,10 +5041,10 @@
         <v>6499316</v>
       </c>
       <c r="Q51" s="9">
-        <v>6959786</v>
+        <v>6919344</v>
       </c>
       <c r="R51" s="9">
-        <v>7350716</v>
+        <v>7307974</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -5094,10 +5097,10 @@
         <v>100867276</v>
       </c>
       <c r="Q52" s="9">
-        <v>105935100</v>
+        <v>105319536</v>
       </c>
       <c r="R52" s="9">
-        <v>110510162</v>
+        <v>109867581</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -5150,10 +5153,10 @@
         <v>89257635</v>
       </c>
       <c r="Q53" s="9">
-        <v>95951796</v>
+        <v>95394242</v>
       </c>
       <c r="R53" s="9">
-        <v>98306437</v>
+        <v>97734817</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -5206,10 +5209,10 @@
         <v>17709371</v>
       </c>
       <c r="Q54" s="9">
-        <v>18529382</v>
+        <v>18421712</v>
       </c>
       <c r="R54" s="9">
-        <v>19319727</v>
+        <v>19207389</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -5262,10 +5265,10 @@
         <v>78746905</v>
       </c>
       <c r="Q55" s="9">
-        <v>82294218</v>
+        <v>81816026</v>
       </c>
       <c r="R55" s="9">
-        <v>85118681</v>
+        <v>84623743</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -5318,10 +5321,10 @@
         <v>9330414</v>
       </c>
       <c r="Q56" s="9">
-        <v>10061604</v>
+        <v>10003138</v>
       </c>
       <c r="R56" s="9">
-        <v>10612977</v>
+        <v>10551266</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -5348,7 +5351,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
